--- a/CarousellData.xlsx
+++ b/CarousellData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
   <si>
     <t>Unit Name</t>
   </si>
@@ -99,324 +99,426 @@
     <t>0</t>
   </si>
   <si>
-    <t>https://www.carousell.ph/p/makati-dormitories-for-p3-250-month-near-bgc-ayala-avenue-240841355/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=dRGIZTR_qhC98nVW&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+    <t>https://www.carousell.ph/p/makati-dormitories-for-p3-250-month-near-bgc-ayala-avenue-240841355/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=e-8rS0tE-MFxQ60X&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
   </si>
   <si>
     <t>https://media.karousell.com/media/photos/products/2021/01/21/makati_dormitories_for_p3250month_near_bgc__ayala_avenue_1611225792_a09638a9e_progressive, https://media.karousell.com/media/photos/products/2021/01/21/makati_dormitories_for_p3250month_near_bgc__ayala_avenue_1611225792_501b9efde_progressive, https://media.karousell.com/media/photos/products/2021/01/21/makati_dormitories_for_p3250month_near_bgc__ayala_avenue_1611225793_fe3f68d1e_progressive, https://media.karousell.com/media/photos/products/2021/01/21/makati_dormitories_for_p3250month_near_bgc__ayala_avenue_1611225793_1a050556e_progressive, https://media.karousell.com/media/photos/products/2021/01/21/makati_dormitories_for_p3250month_near_bgc__ayala_avenue_1611225793_a7003b36e_progressive, https://media.karousell.com/media/photos/products/2021/01/21/makati_dormitories_for_p3250month_near_bgc__ayala_avenue_1611225793_b5287c1de_progressive, https://media.karousell.com/media/photos/products/2021/01/21/makati_dormitories_for_p3250month_near_bgc__ayala_avenue_1611225793_76cd0788e_progressive, https://media.karousell.com/media/photos/products/2021/01/21/makati_dormitories_for_p3250month_near_bgc__ayala_avenue_1611225793_fd0821a3e_progressive, https://media.karousell.com/media/photos/products/2021/01/21/makati_dormitories_for_p3250month_near_bgc__ayala_avenue_1611225794_a58ec9dae_progressive, https://media.karousell.com/media/photos/products/2021/01/21/makati_dormitories_for_p3250month_near_bgc__ayala_avenue_1611225794_27c5f149e_progressive</t>
   </si>
   <si>
-    <t>Female bedspace mandaluyong</t>
-  </si>
-  <si>
-    <t>near jru
-near school
-near churches
-near market
-transporation</t>
-  </si>
-  <si>
-    <t>near market and jeepney
-near school</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Bedspace at Ayala Centera Condominium, EDSA-Mandaluyong. 09085150291.</t>
+  </si>
+  <si>
+    <t>Bedspace at Ayala Centera Condominium, EDSA-Mandaluyong. 
+Free WIFI, monthly association condo dues and water consumption.
+5,200 per month **excluding electricity (Meralco) bill** 
+With TV, aircon, double-deck with foam, table and refrigerator.
+3 slots available.</t>
+  </si>
+  <si>
+    <t>Ayala Centera Condominium, EDSA, Mandaluyong</t>
   </si>
   <si>
     <t>Mandaluyong City</t>
   </si>
   <si>
-    <t>Hagdang Bato Itaas</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/female-bedspace-mandaluyong-1065626718/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=nlcm-CJz6oBqwl4S&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2021/1/27/female_bedspace_mandaluyong_1611727868_bbec72ad_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/27/female_bedspace_mandaluyong_1611727868_e97517e0_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/27/female_bedspace_mandaluyong_1611727868_2083011f_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/27/female_bedspace_mandaluyong_1611727868_4eb5e474_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/27/female_bedspace_mandaluyong_1611727868_1842d7fc_progressive.jpg</t>
-  </si>
-  <si>
-    <t>Makati Male Professional Room for Rent Bedspace</t>
-  </si>
-  <si>
-    <t>LIMITED PROMO: Free Move-in transport (within Makati and nearby areas)
-TXT/SMS Sun: 0943-483-0099
-Makati Male Bedspace Room for Rent Apartment for Male Professionals Boarding House Condominium and Dormitory Style. Flood Free.
-ONLY ONE RIDE FROM:
-Ayala, Buendia/Gil Puyat, Rockwwell, LRT, MRT, EDSA-Guadalupe, Mapua, RCBC, Ayala Malls Circuit Makati, Makati Ave., Malugay
-RATE: (Limited slots left. Txt first to confirm availability.)
-Top Bed - 2,800/mo.
-Bottom Bed - 3,000/mo.
-Features:
-Spacious Social Hall, Common Areas
-Regular Housekeeping
-CCTV for Security
-Kitchen
-Free:
+    <t>https://www.carousell.ph/p/bedspace-at-ayala-centera-condominium-edsa-mandaluyong-09085150291-272164765/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=5ZYywsjlavWpm5Ah&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/01/11/bedspace_at_ayala_centera_condominium_edsamandaluyong_09085150291_1578700587_75e1b113b_progressive</t>
+  </si>
+  <si>
+    <t>Female Bedspacers in Masinag</t>
+  </si>
+  <si>
+    <t>Wanted female bedspacers in Masinag Antipolo in front of SM Masinag and Super 8, just walking distance to LRT Station and Market Free electricity water and wifi Contact 09189456005 or 09770189343</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Calabarzon</t>
+  </si>
+  <si>
+    <t>Antipolo</t>
+  </si>
+  <si>
+    <t>Mayamot</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/female-bedspacers-in-masinag-1062322859/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=Fxc70SENSvFJMeWQ&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/1/12/female_bedspacers_in_masinag_1610466259_490e7df4_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/12/female_bedspacers_in_masinag_1610466259_5442abc9_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/12/female_bedspacers_in_masinag_1610466259_e40b6cd3_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/12/female_bedspacers_in_masinag_1610466259_d1c6ec39_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Female Bedspace Ortigas</t>
+  </si>
+  <si>
+    <t>Available now!!!!
+for female only
+Our unit is located in San Antonio Village Pasig.
+&gt;Near Capitol Commons, SSS, Pag-ibig, Astoria and Ultra.
+&gt;15 mins walk to Tektite, Metrowalk, Podium, Ortigas Business Center, Megamall.
+&gt;5 mins walk to Estancia/Capitol Commons
+Included:
+Electricity
 Water
-Electricity
-High Speed Wi-Fi
-Hot and Cold Filtered Drinking Water
-Flat TV with Cable
-Steel Beds
-Uratex Foam Mattress
-TXT/SMS Sun: 0943-483-0099</t>
-  </si>
-  <si>
-    <t>MAKATI</t>
+Wifi access
+Stove
+Cable
+Cooking utensils
+use of ref, microwave,coffee maker, kettle
+4000 - with AC
+Highly secured 24/7 security.
+Requirements:
+Photocopy of Govt issued ID, COE  or NBI
+Viewing sched.
+Anytime - ( please text prior viewing)
+Contact # 09266632576</t>
+  </si>
+  <si>
+    <t>Bgry. San Antonio</t>
+  </si>
+  <si>
+    <t>Pasig City</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/female-bedspace-ortigas-244521978/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=5ZYywsjlavWpm5Ah&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/8/26/female_bedspace_ortigas_1598444145_94ce5825_progressive.jpg, https://media.karousell.com/media/photos/products/2019/08/08/female_bedspace_for_rent_1565274006_8cef808e_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/26/female_bedspace_ortigas_1598444145_693e8f70_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/26/female_bedspace_ortigas_1598444146_4dc65a74_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/26/female_bedspace_ortigas_1598444146_9bb0981e_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/18/female_bedspace_ortigas_1610958047_7459d687_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/18/female_bedspace_ortigas_1610958047_1ff7fa43_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/26/female_bedspace_ortigas_1598444146_e3b64d8d_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Male Bedspace Condo Sharing Ortigas Rent</t>
+  </si>
+  <si>
+    <t>BEDSPACE CONDO SHARING ROOM FOR RENT (MALE Only)
+w/ 24 hours security
+Airconditioned Room
+Terms
+- Php 4500 monthly rent
+- 1 month advance and 1 months refundable security deposits
+Inclusive of the following
+- Water Bill
+- Drinking Water
+- Association Dues
+- High Speed Wifi Internet
+- Maintenance Cleaning
+-w/ appliances: Ref, microwave, rice cooker and kettle.
+Electricity is for sharing to all tenants
+Free Use of Amenities
+- Gym
+- Swimming Pool
+- Jogging Path
+For Reservation &amp; Inquiries:
+Mobile # : (0912) 425 7768</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/male-bedspace-condo-sharing-ortigas-rent-238943003/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=5ZYywsjlavWpm5Ah&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/07/12/182430_238943003_101a2993.jpg, https://media.karousell.com/media/photos/products/2019/07/12/182430_238943003_02092e53.jpg, https://media.karousell.com/media/photos/products/2019/07/12/182430_238943003_b6ce249f.jpg, https://media.karousell.com/media/photos/products/2019/08/29/male_bedspace_condo_sharing_ortigas_rent_1567072038_48dfbc3c_progressive.jpg, https://media.karousell.com/media/photos/products/2019/08/29/male_bedspace_condo_sharing_ortigas_rent_1567073209_91e70cb1_progressive.jpg</t>
+  </si>
+  <si>
+    <t>UP Diliman Male Bedspacer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WANTED MALE BEDSPACER
+For INQUIRIES please call or text KUYA OMAR for scheduled viewing 09258232335 (suncellular#)
+Location : Bldg. 18 UP Bliss / just at the back of Jollibee Philcoa along Commonwealth Avenue 
+One jeepney ride to UP Campus Diliman and Technohub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back of Jollibee Philcoa, Bldg 18 ground floor UP Bliss Brgy. San Vicente Diliman Quezon City </t>
+  </si>
+  <si>
+    <t>Quezon City</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/up-diliman-male-bedspacer-1000001984/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=5ZYywsjlavWpm5Ah&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/4/1/up_diliman_male_bedspacer_1585740229_e1a8effd_progressive, https://media.karousell.com/media/photos/products/2020/4/1/up_diliman_male_bedspacer_1585740229_be63c905_progressive, https://media.karousell.com/media/photos/products/2020/4/1/up_diliman_male_bedspacer_1585740229_f75c4539_progressive, https://media.karousell.com/media/photos/products/2020/4/1/up_diliman_male_bedspacer_1585740229_547ea2cb_progressive, https://media.karousell.com/media/photos/products/2021/1/12/up_diliman_male_bedspacer_1610438263_00db8082_progressive.jpg, https://media.karousell.com/media/photos/products/2020/4/1/up_diliman_male_bedspacer_1585740230_7b6e5773_progressive, https://media.karousell.com/media/photos/products/2020/4/1/up_diliman_male_bedspacer_1585740230_3a16d071_progressive, https://media.karousell.com/media/photos/products/2020/4/1/up_diliman_male_bedspacer_1585740230_947af7da_progressive, https://media.karousell.com/media/photos/products/2020/4/1/up_diliman_male_bedspacer_1585740230_d862525a_progressive, https://media.karousell.com/media/photos/products/2020/4/1/up_diliman_male_bedspacer_1585740230_aca9f0a1_progressive</t>
+  </si>
+  <si>
+    <t>Bedspace for rent</t>
+  </si>
+  <si>
+    <t>Bedspace good for 4 person with own cr and sink ang room. For interested, kindly text 09284483720
+Located in decent subdivision</t>
+  </si>
+  <si>
+    <t>Imus</t>
+  </si>
+  <si>
+    <t>Anabu II-F</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspace-for-rent-1062209684/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=Fxc70SENSvFJMeWQ&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/1/12/bedspace_for_rent_1610433462_3570bf49_progressive, https://media.karousell.com/media/photos/products/2021/1/12/bedspace_for_rent_1610433462_f9f3adca_progressive, https://media.karousell.com/media/photos/products/2021/1/12/bedspace_for_rent_1610433462_b3fb4336_progressive</t>
+  </si>
+  <si>
+    <t>Bedspace/Condo sharing</t>
+  </si>
+  <si>
+    <t>HANAP MO BA AY BEDSPACE Condosharing na ⬇️
+✔️very accessible to MALL OF ASIA, OKADA, COD SOLAIRE (sakay ng orange multicab dadaan na MISMO SA CONDO)
+✔️2-10 minutes walk to LRT Edsa, MRT Edsa, Metropoint, Midas Hotel, Heritage  at Baclaran
+✔️LIPAT AGAD!
+PM lang sa iba pang katanungan.</t>
+  </si>
+  <si>
+    <t>Park Avenue Mansion</t>
+  </si>
+  <si>
+    <t>Pasay City</t>
+  </si>
+  <si>
+    <t>31.44</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspace-condo-sharing-240442284/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=5ZYywsjlavWpm5Ah&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/07/18/bedspacecondo_sharing_1563421821_29817784_progressive.jpg, https://media.karousell.com/media/photos/products/2019/07/18/bedspacecondo_sharing_1563421821_0907c9f1_progressive.jpg, https://media.karousell.com/media/photos/products/2019/07/18/bedspacecondo_sharing_1563421821_10ffee6d_progressive.jpg, https://media.karousell.com/media/photos/products/2019/07/18/bedspacecondo_sharing_1563421821_9100e9cc_progressive.jpg, https://media.karousell.com/media/photos/products/2019/07/18/bedspacecondo_sharing_1563421822_a12854dd_progressive.jpg, https://media.karousell.com/media/photos/products/2019/07/18/bedspacecondo_sharing_1563421822_d6fd6182_progressive.jpg, https://media.karousell.com/media/photos/products/2019/07/18/bedspacecondo_sharing_1563421822_24d5c8f7_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Pacific Regency Condo Sharing Female Bedspace LRT CSB DLSU St Scho</t>
+  </si>
+  <si>
+    <t>Located in front of Rizal Stadium
+Walking distance to LRT, De La Salle University  Manila, College of Saint Benilde, St. Scholastica's College
+Address: Pacific Regency 760 P. Ocampo St. Malate, Manila
+All In (Inclusive of Association Dues, water &amp; electricity)
+Guaranteed for 4 Female Occupants only
+Available for viewing and occupancy
+Comes with bed, mattresses, cabinets
+with WiFi, Television, microwave &amp; Fan
+Free Use of amenities (swimming pool &amp; gym)
+Convenient stores, laundry shops, and restaurants nearby. 
+1 month advance 1 
+month deposit
+Minimum of  3 months stay 
+Please contact for viewing schedule
+0 9 1 7 5 5 1 9 4 6 5</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/pacific-regency-condo-sharing-female-bedspace-lrt-csb-dlsu-st-scho-238529979/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=5ZYywsjlavWpm5Ah&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_65c8041c.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_1311ad60.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_8dba4feb.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_88f62bc9.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_d823e73d.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_453a7311.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_320853a4.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_b1b7014b.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_9dfda54b.jpg</t>
+  </si>
+  <si>
+    <t>Bedspace for Rent - Ladies</t>
+  </si>
+  <si>
+    <t>Female Bedspace for Rent near San Andres Malate, Manila
+-Exclusive for Ladies
+-Php 2,500/month
+-Electricity and water already included in the rent
+-No curfew
+-Convenient location for people applying to work abroad, employees, OJT students
+Message us for more details.</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspace-for-rent-ladies-239185562/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=5ZYywsjlavWpm5Ah&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_d52b1828_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_48af0582_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_3aec2437_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_b68230bc_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_33535da3_progressive.jpg</t>
+  </si>
+  <si>
+    <t>4 bedroom dorm type apartment for staff housing across Victory Pasay M</t>
+  </si>
+  <si>
+    <t>4 bedrooms with 10 beds with 3 shared/common toilet and 1 kitchen. 
+maximum of 10 persons capacity.  All beds include mattresses already. Ready for occupancy.
+located on the ground floor, with separate access from the street level. No curfew needed.
+all beds with their own worktable and outlets.
+ideal for a staff house.
+electricity and water included in the rent.
+located very near Libertad LRT Station and right across Victory Pasay Mall.
+nearby establishments are 7-11, Mercury Drug, Puregold Grocery, Mang Inasal, Kentucky Fried Chicken.
+Libertad Public Market, Cartimar Market, Eastwest Bank, BPI, PNB, BDO, Metrobank, Security Bank, Chinabank.
+walking distance to Pagibig PASAY Office, Cuneta Astrodome, Welcomme Mall.
+1 ride away from Makati, SM MOA area.
+no parking available. no aircon available.
+tenant can install aircon at their own cost + electricity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A. Arnaiz Ave. Pasay, Pasay City</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/4-bedroom-dorm-type-apartment-for-staff-housing-across-victory-pasay-m-1051933976/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=e-8rS0tE-MFxQ60X&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/01/21/4_bedroom_dorm_type_apartment_for_staff_housing_across_victory_pasay_m_1611203671_26b2e408e_progressive, https://media.karousell.com/media/photos/products/2021/01/21/4_bedroom_dorm_type_apartment_for_staff_housing_across_victory_pasay_m_1611203671_de8d4bbbe_progressive, https://media.karousell.com/media/photos/products/2021/01/21/4_bedroom_dorm_type_apartment_for_staff_housing_across_victory_pasay_m_1611203671_d48b2ecbe_progressive, https://media.karousell.com/media/photos/products/2021/01/21/4_bedroom_dorm_type_apartment_for_staff_housing_across_victory_pasay_m_1611203671_e056b14be_progressive, https://media.karousell.com/media/photos/products/2021/01/21/4_bedroom_dorm_type_apartment_for_staff_housing_across_victory_pasay_m_1611203672_a9710bf4e_progressive, https://media.karousell.com/media/photos/products/2021/01/21/4_bedroom_dorm_type_apartment_for_staff_housing_across_victory_pasay_m_1611203672_22acb38ce_progressive, https://media.karousell.com/media/photos/products/2021/01/21/4_bedroom_dorm_type_apartment_for_staff_housing_across_victory_pasay_m_1611203672_a5b95fe8e_progressive, https://media.karousell.com/media/photos/products/2021/01/21/4_bedroom_dorm_type_apartment_for_staff_housing_across_victory_pasay_m_1611203672_1b7fadbde_progressive</t>
+  </si>
+  <si>
+    <t>Bedspace For Male Mandaluyong</t>
+  </si>
+  <si>
+    <t>Rm Solo/Shared 
+Initial Paymt: 4-Gives or P500 ONLY
+Monthly Rent: 2-Gives
+Looking For: Male Young Professionals (Decent)
+Age: 20-45
+Reqs.: (ID Pix, Co. ID, Any Gov't ID, NBI Clearance) 
+Various Perks and Privileges: 
+1. The whole townhouse unit is usable, with ac, fully furnished 
+2. No Curfew, gate/Rm keys provided 
+3. 24-hours water supply &amp; transportation
+4. Housekeeper's Provided
+5. Free Pick-up and Delivery of Laundry Services 
+6. Group WIFI access 
+7. Free Parking space 
+8. Accessible to all primary needs
+9. Events &amp; Activities 
+10.Various Discounts 
+For more details, u may text me at 0917-5113088. U may visit d place 2 appreciate &amp; we will discuss all the perks and privileges. - MARC</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/makati-male-professional-room-for-rent-bedspace-238002475/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=nlcm-CJz6oBqwl4S&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2019/07/09/makati_male_professional_room_for_rent_bedspace_1562633307_adce840c0_progressive, https://media.karousell.com/media/photos/products/2019/07/09/makati_male_professional_room_for_rent_bedspace_1562633307_2f72790b1_progressive, https://media.karousell.com/media/photos/products/2019/07/09/makati_male_professional_room_for_rent_bedspace_1562633307_5feae5402_progressive, https://media.karousell.com/media/photos/products/2019/07/09/makati_male_professional_room_for_rent_bedspace_1562633307_f5764d003_progressive</t>
-  </si>
-  <si>
-    <t>Female bedspace in Las Pinas near RFC Starmall</t>
-  </si>
-  <si>
-    <t>Triple deck (lower deck = P2,300 / middle = P2,150 / upper = P2,000).
-First month's rent and advance deposit required.
-Utilities included.
-Safe and secure.
-Spacious bed.
-Clean facilities.
-No flooding.
-Near the highway.
-Quiet neighborhood.
-Free use of TV, refrigerator, wifi/internet, etc.
-Located at 37 Libra Street, Pamplona Park Subdivision, Pamplona 2, Las Pinas City.
-Just walking distance from Red Ribbon/Starmall.
-15 minutes away from Perpetual University.
-Note:  If you can see the posting, it's available.
-For more info, you may also contact my caretaker, Necitas at zero-nine-nine-eight-two-two-three-zero-one-four-zero.</t>
-  </si>
-  <si>
-    <t>Las Pinas</t>
+    <t>https://www.carousell.ph/p/bedspace-for-male-mandaluyong-238486060/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=5ZYywsjlavWpm5Ah&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_b00edfa7.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_719e1e68.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_32f21557.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_d1d2e999.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_1f516216.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_e85abcd2.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_94745904.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_89f02bb9.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_fa0dfc30.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_9c7c6ccf.jpg</t>
+  </si>
+  <si>
+    <t>All in Spacious Furnished Bedspace in GMA Kamuning</t>
+  </si>
+  <si>
+    <t>Rate inclusive of all utilities ie. electricity with air-con (1 HP), water, 25 mbps optic  fiber internet, common landline, cooking, laundry
+Full built in cabinetry for wardrobe, luggage, library study desk and files
+With study/work desks,chair, night table, electric fan per bedspacer
+Layout allow home office/remote worker set up
+Locks for drawers and cabinets
+Appliance in room are aircon, table  electric fan per bed, study lamps
+Access and use of fully accessorized dining area, two kitchens, living areas, two service/laundry areas, lanai/porch, garden
+Room assigned CR with shower heater. Two CRs for boarders.
+Additional P 1000 for permanent parking slot if with vehicle (sedan/SUV)
+This is a boarding house in a quiet residential neighborhood with open green spaces
+1 min. walk to Kamuning Road, 5 min walk to GMA-Kamuning MRT
+Requirements:
+Full Time Working preferably normal working hours
+Minimum 6 months lease
+Updated government and employer ID
+1 month property deposit
+1 month rent advance
+Contact:  Gela: 091171369447
+                         85299439</t>
+  </si>
+  <si>
+    <t>#10, 11th Jamboree St.</t>
+  </si>
+  <si>
+    <t>Sacred Heart</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
-    <t>https://www.carousell.ph/p/female-bedspace-in-las-pinas-near-rfc-starmall-239191594/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=nlcm-CJz6oBqwl4S&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2019/07/12/195014_239191594_d91e47c2.jpg, https://media.karousell.com/media/photos/products/2019/07/12/195014_239191594_13daf9ee.jpg, https://media.karousell.com/media/photos/products/2019/07/12/195014_239191594_d8b32d8f.jpg, https://media.karousell.com/media/photos/products/2019/07/12/195014_239191594_38508579.jpg, https://media.karousell.com/media/photos/products/2019/07/12/195014_239191594_023b3042.jpg, https://media.karousell.com/media/photos/products/2019/07/12/195014_239191594_17353923.jpg</t>
-  </si>
-  <si>
-    <t>Lady Bedspace for Rent in Quezon City</t>
-  </si>
-  <si>
-    <t>Welcome Ladies! A Home Away from Home.
-Promo rate/month P4,800/head
-Amenities
-• Fully furnished brand new rooms
-• Free wifi
-• AC rooms
-• Shower heater
-• Kitchen area: stove, rice cooker, oven toaster, m. oven, H2O heater, ref, filtered H2O
-• Washing machine
-• Coffee/study/rec area
-• Security – biometrics door, 24/7 CCTV
-Proximity
-• Near UP, Ateneo, Miriam
-• Near Trinoma, SM North, UP Town Center
-• Near EDSA, QC Hall, QC Circle, Commonwealth, Philcoa, Katipunan
-• Near Phil Heart Center, East Ave Medical Center
-• Near restaurants, grocery stores, pharmacies, spa, salon
-Address: 95A Matahimik St., Sikatuna Vill., QC (near Nest Learning Center)</t>
-  </si>
-  <si>
-    <t>Quezon City</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/lady-bedspace-for-rent-in-quezon-city-239043340/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=nlcm-CJz6oBqwl4S&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2019/07/12/185202_239043340_c434696b.jpg, https://media.karousell.com/media/photos/products/2019/07/12/185202_239043340_9f286423.jpg, https://media.karousell.com/media/photos/products/2019/07/12/185202_239043340_46d5e6a9.jpg, https://media.karousell.com/media/photos/products/2019/07/12/185202_239043340_58c23095.jpg, https://media.karousell.com/media/photos/products/2019/07/12/185202_239043340_d38e86c9.jpg, https://media.karousell.com/media/photos/products/2019/07/12/185202_239043340_3ebaeeea.jpg, https://media.karousell.com/media/photos/products/2019/07/12/185202_239043340_d4e1df19.jpg, https://media.karousell.com/media/photos/products/2019/07/12/185202_239043340_fe04fbdd.jpg, https://media.karousell.com/media/photos/products/2019/07/12/185202_239043340_5639d5d6.jpg, https://media.karousell.com/media/photos/products/2019/07/12/185202_239043340_b60e6e4e.jpg</t>
-  </si>
-  <si>
-    <t>Room Bedspace For Rent near UST NU Mendiola CPAR Review Centers</t>
-  </si>
-  <si>
-    <t>Room for rent or bedspace available in Sampaloc, Manila Area 
-Php. 3,500 per person (neg.). If you want a room, kindly contact the number for details.
-Near U-belt like UST, NU and Review Centers like CPAR, RESA, etc.
-Kindly contact the number provided for any inquiries or room/bedspace availability
-2 rooms with own CR and AC *not available as of now.
-4 rooms with AC good for 4 persons -- can be 6 if maximized
-1 room w/o AC good for 2 persons 
-With 3 common toilet and bath
-Please contact the number before you visit so that we can accommodate you properly.
-Thank you, God bless.</t>
-  </si>
-  <si>
-    <t>Manila</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/room-bedspace-for-rent-near-ust-nu-mendiola-cpar-review-centers-238776415/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=nlcm-CJz6oBqwl4S&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2019/07/12/171703_238776415_4046cf70.jpg, https://media.karousell.com/media/photos/products/2019/07/12/171703_238776415_e4748280.jpg, https://media.karousell.com/media/photos/products/2019/07/12/171703_238776415_32cb24f6.jpg, https://media.karousell.com/media/photos/products/2019/07/12/171703_238776415_038174be.jpg, https://media.karousell.com/media/photos/products/2019/07/12/171703_238776415_8554f958.jpg, https://media.karousell.com/media/photos/products/2019/07/12/171703_238776415_b9850cff.jpg, https://media.karousell.com/media/photos/products/2019/07/12/171703_238776415_9a08dc91.jpg, https://media.karousell.com/media/photos/products/2019/07/12/171703_238776415_751f5080.jpg, https://media.karousell.com/media/photos/products/2019/07/12/171703_238776415_79c17c14.jpg, https://media.karousell.com/media/photos/products/2019/07/12/171703_238776415_f1bbf993.jpg</t>
-  </si>
-  <si>
-    <t>Moonwalk paranaque BEDSPACE FOR RENT</t>
-  </si>
-  <si>
-    <t>• Inclusions of water &amp; electric (laundry are not allowed)
-•FAN are only inclusion OTHER APPLIANCES are additional charge
-•Cooking not allowed
-• two persons in a room 
-• Near McDo Moonwalk, BDO
-• Walking Distance to 7-11, Alfamart
-   Mercury and market
-• Near in SM BIC &amp; SUCAT
-• Near Duty Free Fiestamall 
-• Near Airport Terminals 
-• Near Paranaque Doctors
-• We also accept transient
-• Please contact 09054551946 for immediate response</t>
-  </si>
-  <si>
-    <t>St. Andrew Street San Agustin Village Moonwalk PQUE</t>
-  </si>
-  <si>
-    <t>Paranaque City</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/moonwalk-paranaque-bedspace-for-rent-242986023/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=nlcm-CJz6oBqwl4S&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2020/6/21/moonwalk_paranaque_bedspace_fo_1592751161_9b0224b0_progressive.jpg, https://media.karousell.com/media/photos/products/2019/10/20/moonwalk_paranaque_bedspace_for_rent_1571564095_70f8a083_progressive.jpg, https://media.karousell.com/media/photos/products/2020/6/21/moonwalk_paranaque_bedspace_fo_1592751161_033c432c_progressive.jpg, https://media.karousell.com/media/photos/products/2020/6/21/moonwalk_paranaque_bedspace_fo_1592751161_2d4396ff_progressive.jpg, https://media.karousell.com/media/photos/products/2019/10/20/moonwalk_paranaque_bedspace_for_rent_1571564095_8adb29fa_progressive.jpg</t>
-  </si>
-  <si>
-    <t>Bedspace in Katipunan</t>
-  </si>
-  <si>
-    <t>?? BEDSPACE IN KATIPUNAN ??
-??3 minutes walk to LRT 2 Katipunan?? 
-?? Walking distance to Ateneo,UP,PSBA,PNB,Jeep and FX stations??
-??1 Ride to Cubao and East Wood  
-?? Must provide 2 Gov. ID's
-??Inclusive of Electricity,Water,Internet,Gas,Drinking Water &amp; House utilities)
-??Fully Furnished house (Refrigerator, Gas Stove, Rice cooker, Plates and Utensils etc.)
-??2 CR with Showers and Bidet
-??Free Housekeeping 
-??Free 55 inch smart voice command TV  netflix,hbo &amp; etc.
-??Free Use of Aircon (2x1.5HP LG split type)
-??Free Use of Wifi (Globe Fiber 100mbps)
-??Free Use of Laundry (LG 12kg Automatic Washing Machine)
-?? Personal drawers and table (lock not included)
-??️ Breakfast is served at 6 AM ?????? 
-?? Receiving area  
-??‍♂️Roving Security Guard and CCTV 
-??Fire exit and fire extinguisher 
-?? 4,499 a month
-1month advance 1month deposit to move in 
-??Location: Villa Aurora Townhomes Loyola Heights Katipunan Q.C.
-??Message me or send SMS 09178941129
-☎️ Call 0277391410</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>Loyola Heights</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/bedspace-in-katipunan-1049616189/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=nlcm-CJz6oBqwl4S&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2020/11/17/bedspace_in_katipunan_1605601947_9210d6fd_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/17/bedspace_in_katipunan_1605601947_7d4e745f_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/17/bedspace_in_katipunan_1605601947_cee5eac5_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/17/bedspace_in_katipunan_1605601947_aee35b05_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/17/bedspace_in_katipunan_1605601948_f3cea9dd_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/17/bedspace_in_katipunan_1605601948_82ad11c3_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/17/bedspace_in_katipunan_1605601948_4ea3d22a_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/17/bedspace_in_katipunan_1605601948_0d46dd2b_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/17/bedspace_in_katipunan_1605601948_9c73b917_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/17/bedspace_in_katipunan_1605601949_d83267be_progressive.jpg</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Lady Bedspace Condo sharing ortigas</t>
-  </si>
-  <si>
-    <t>Female only
-including  internet, cable tv, ref, washing machine, water and electricity.
-slots start at 3,500.00
-Upper Bunk - 3,500.00 + 500 (utility) = 4,000.00
-Lower bunk - 4,000.00 + 500 (utility) = 4,500.00</t>
-  </si>
-  <si>
-    <t>ADB Ave., Ortigas Center, Pasig City.
-Back of Robinson Galleria, Blue and white bldg.</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Pasig City</t>
-  </si>
-  <si>
-    <t>94.25</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/lady-bedspace-condo-sharing-ortigas-1043832309/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=dRGIZTR_qhC98nVW&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2021/1/23/lady_bedspace_condo_sharing_or_1611392824_ec9fad8b_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/23/lady_bedspace_condo_sharing_or_1611392824_27828599_progressive.jpg</t>
-  </si>
-  <si>
-    <t>Bedspace (Near Metropoint)</t>
-  </si>
-  <si>
-    <t>bedspace area near mrt taft and lrt edsa. one ride to moa.. with wifi, water, electric. apartment with shared rooms..</t>
-  </si>
-  <si>
-    <t>227 Vergel Pasay</t>
-  </si>
-  <si>
-    <t>Pasay City</t>
-  </si>
-  <si>
-    <t>Barangay 113</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/bedspace-near-metropoint-1065284849/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=awUqsPOIZWV8GtqL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2021/1/25/bedspace_near_metropoint_1611581627_0796f6e4_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/25/bedspace_near_metropoint_1611581627_0f97262b_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/25/bedspace_near_metropoint_1611581627_5cd1db36_progressive.jpg</t>
-  </si>
-  <si>
-    <t>Lady bedspace for rent in pasay room bed space</t>
-  </si>
-  <si>
-    <t>Lady bedspace for rent in pasay
-3250 each only
-1room good for 2 pax
-Free wifi
-Hot shower
-Water and electricity included
-Common sink and CR
-With exhaust fan
-Located in 2nd floor
-100 ibarra street pasay city.
-Near lrt and mrt 
-09214392273 choy bonifacio</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/lady-bedspace-for-rent-in-pasay-room-bed-space-1021465081/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=nlcm-CJz6oBqwl4S&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2020/7/17/lady_bedspace_for_rent_in_pasa_1594991918_00031bda_progressive.jpg, https://media.karousell.com/media/photos/products/2020/7/17/lady_bedspace_for_rent_in_pasa_1594991918_c98720a8_progressive.jpg, https://media.karousell.com/media/photos/products/2020/7/17/lady_bedspace_for_rent_in_pasa_1594991918_e338262f_progressive.jpg</t>
+    <t>https://www.carousell.ph/p/all-in-spacious-furnished-bedspace-in-gma-kamuning-1047145937/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=5ZYywsjlavWpm5Ah&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/11/6/all_in_furnished_female_bedspa_1604626506_4e90c212_progressive, https://media.karousell.com/media/photos/products/2020/11/6/all_in_furnished_female_bedspa_1604626506_8de5d80f_progressive, https://media.karousell.com/media/photos/products/2020/11/6/all_in_furnished_female_bedspa_1604626506_37245e82_progressive, https://media.karousell.com/media/photos/products/2020/11/6/all_in_furnished_female_bedspa_1604626506_2053603d_progressive, https://media.karousell.com/media/photos/products/2020/11/6/all_in_furnished_female_bedspa_1604626506_c5428564_progressive, https://media.karousell.com/media/photos/products/2020/11/6/all_in_furnished_female_bedspa_1604626507_1883b5e8_progressive, https://media.karousell.com/media/photos/products/2020/11/6/all_in_furnished_female_bedspa_1604626507_d37f225a_progressive, https://media.karousell.com/media/photos/products/2020/11/6/all_in_furnished_female_bedspa_1604626507_05cd3aab_progressive, https://media.karousell.com/media/photos/products/2020/11/6/all_in_furnished_female_bedspa_1604626507_6ccf2e4b_progressive, https://media.karousell.com/media/photos/products/2020/11/6/all_in_furnished_female_bedspa_1604626507_8446c860_progressive</t>
+  </si>
+  <si>
+    <t>Female Bedspace in Pasay City</t>
+  </si>
+  <si>
+    <t>Female Bedspace for rent RCD Pasay Townhouse Cabrera Street Pasay walking distance to Edsa
+Female Bedspace 
+- 3,000.00 inclusive water &amp; meralco.
+- Additional 100.00 per appliances
+1 months deposit, 1 month advance</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/female-bedspace-in-pasay-city-1020407794/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=5ZYywsjlavWpm5Ah&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/01/05/female_bedspace_in_pasay_city_1609835561_98f2f75ce_progressive, https://media.karousell.com/media/photos/products/2021/01/05/female_bedspace_in_pasay_city_1609835562_2b863247e_progressive, https://media.karousell.com/media/photos/products/2021/01/05/female_bedspace_in_pasay_city_1609835562_c195cb49e_progressive, https://media.karousell.com/media/photos/products/2021/01/05/female_bedspace_in_pasay_city_1609835562_036434c5e_progressive, https://media.karousell.com/media/photos/products/2021/01/05/female_bedspace_in_pasay_city_1609835562_a32f22c7e_progressive, https://media.karousell.com/media/photos/products/2021/01/05/female_bedspace_in_pasay_city_1609835562_8a6a8412e_progressive</t>
+  </si>
+  <si>
+    <t>Female bedspacers</t>
+  </si>
+  <si>
+    <t>Looking for female bed spacers. 
+Fresh Condo unit
+Location: Urban Deca Homes Tondo (Vitas)
+Accessible/Near to:
+?? Public transportation
+?? Food panda and grab food
+?? Deca Mall and Hypermarket
+?? Puregold Tayuman
+?? Tondo Medical
+?? Tayuman LRT Station
+?? Divisoria
+?? Lucky China Town Mall
+?? Tutuban
+?? SM San Lazaro
+?? Metropolitan Medical Center
+?? FEU
+?? UE 
+?? UST
+?? Lyceum
+?? Letran
+?? Quiapo Church
+?? Lawton
+?? Intramuros
+?? PRC
+PM for details</t>
+  </si>
+  <si>
+    <t>Tondo - Barangay 1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/female-bedspacers-1061752234/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=U_JIk41RYacBFIDq&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252502_9c28bf02_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252502_6088e706_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252502_19b0566c_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252503_e7277514_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252503_05b7d7ef_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252503_c88bd39c_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252503_e9c84e7b_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252503_6eccb053_progressive.jpg</t>
   </si>
   <si>
     <t>RESIDENCIA FORTUNA Apartment Not Dorm UST Sampaloc Manila University B</t>
@@ -455,200 +557,78 @@
     <t xml:space="preserve"> Don Quijote St., Sampaloc</t>
   </si>
   <si>
-    <t>https://www.carousell.ph/p/residencia-fortuna-apartment-not-dorm-ust-sampaloc-manila-university-b-240824230/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=dRGIZTR_qhC98nVW&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+    <t>https://www.carousell.ph/p/residencia-fortuna-apartment-not-dorm-ust-sampaloc-manila-university-b-240824230/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=e-8rS0tE-MFxQ60X&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
   </si>
   <si>
     <t>https://media.karousell.com/media/photos/products/2020/10/16/residencia_fortuna_apartment_not_dorm_ust_sampaloc_manila_university_b_1602822043_3f9a3861e_progressive, https://media.karousell.com/media/photos/products/2020/10/16/residencia_fortuna_apartment_not_dorm_ust_sampaloc_manila_university_b_1602822043_3ac8ae31e_progressive, https://media.karousell.com/media/photos/products/2020/10/16/residencia_fortuna_apartment_not_dorm_ust_sampaloc_manila_university_b_1602822043_1459fcede_progressive, https://media.karousell.com/media/photos/products/2020/10/16/residencia_fortuna_apartment_not_dorm_ust_sampaloc_manila_university_b_1602822043_a61f937ae_progressive, https://media.karousell.com/media/photos/products/2020/10/16/residencia_fortuna_apartment_not_dorm_ust_sampaloc_manila_university_b_1602822043_b3255b7fe_progressive, https://media.karousell.com/media/photos/products/2020/10/16/residencia_fortuna_apartment_not_dorm_ust_sampaloc_manila_university_b_1602822043_bf58387ae_progressive, https://media.karousell.com/media/photos/products/2020/10/16/residencia_fortuna_apartment_not_dorm_ust_sampaloc_manila_university_b_1602822043_8aada511e_progressive, https://media.karousell.com/media/photos/products/2020/10/16/residencia_fortuna_apartment_not_dorm_ust_sampaloc_manila_university_b_1602822043_4132e2a7e_progressive, https://media.karousell.com/media/photos/products/2020/10/16/residencia_fortuna_apartment_not_dorm_ust_sampaloc_manila_university_b_1602822043_f86c572be_progressive, https://media.karousell.com/media/photos/products/2020/10/16/residencia_fortuna_apartment_not_dorm_ust_sampaloc_manila_university_b_1602822043_91936dc2e_progressive</t>
   </si>
   <si>
-    <t>Bedspace Ladies only</t>
-  </si>
-  <si>
-    <t>bedspace for ladies only
-near LRT Libertad 
-2.5k a month inclusive of water and electric
-09105477777 call for details</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/bedspace-ladies-only-1025441900/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=nlcm-CJz6oBqwl4S&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2020/8/2/bedspace_ladies_only_1596363706_cd8b470c_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/2/bedspace_ladies_only_1596363706_84272f43_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/2/bedspace_ladies_only_1596363706_cc2e7715_progressive.jpg</t>
-  </si>
-  <si>
-    <t>Female Bedspace for rent near Madrigal bus. Park Alabang and Las Pinas</t>
-  </si>
-  <si>
-    <t>Add: Champaca St., Castillo Park Subd., Almanza Uno, Las Pinas beside Ohana Place Condo and in front of Good year, 2 mins walk to Alabang-Zapote Road. 
-Bedspace 4 rent STRICTLY FOR LADIES ONLY 
-Preferably working ladies w/ morning work schedule, with PLEASING PERSONALITY &amp; malinis s bahay.
-*Konting gamit lang pwedeng dalhin kasi maliit lang yong space.
-1 SLOT AVAILABLE
-Upper deck - Php 2,300/month inclusive of water &amp; basic electricity 
-*Contact no.0917*955*9410
-*Min. 3 months contract 
-*1 month advance &amp; 2 months deposit 
-2 valid Id's required 
-House rules: 
-NO GUEST ALLOWED TO ENTER THE PREMISES. 
-NO CURFEW 
-NO SMOKING &amp; ALCOHOLIC DRINKING 
-CLEAN AS YOU GO</t>
-  </si>
-  <si>
-    <t>Castill Park Subdivision, Almanza Uno Las Pinas City</t>
-  </si>
-  <si>
-    <t>Almanza Uno</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/female-bedspace-for-rent-near-madrigal-bus-park-alabang-and-las-pinas-1057520471/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=nlcm-CJz6oBqwl4S&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2020/12/20/female_bedspace_for_rent_near__1608485857_37d14299_progressive, https://media.karousell.com/media/photos/products/2020/12/20/female_bedspace_for_rent_near__1608485857_67c63f8b_progressive, https://media.karousell.com/media/photos/products/2020/12/20/female_bedspace_for_rent_near__1608485857_911bcea2_progressive, https://media.karousell.com/media/photos/products/2020/12/20/female_bedspace_for_rent_near__1608485857_725dad0e_progressive, https://media.karousell.com/media/photos/products/2020/12/20/female_bedspace_for_rent_near__1608485858_1bcc6a83_progressive, https://media.karousell.com/media/photos/products/2020/12/20/female_bedspace_for_rent_near__1608485858_cd35c302_progressive, https://media.karousell.com/media/photos/products/2020/12/20/female_bedspace_for_rent_near__1608485858_3e535787_progressive, https://media.karousell.com/media/photos/products/2020/12/20/female_bedspace_for_rent_near__1608485858_e1df2fc7_progressive, https://media.karousell.com/media/photos/products/2020/12/20/female_bedspace_for_rent_near__1608485858_deb824a1_progressive, https://media.karousell.com/media/photos/products/2020/12/20/female_bedspace_for_rent_near__1608485858_604b4e06_progressive</t>
-  </si>
-  <si>
-    <t>Bedspace/ Condo Sharing for Female</t>
-  </si>
-  <si>
-    <t>Bedspace/Condo Sharing for Female at Shaw Tower  Condominium Mandaluyong Ortigas Greenhills Pasig
-Don’t waste your time in traffic, live close where you work, work close where you live
-*back of Shangri-La mall
-*near SM megamall and Ortigas Center
-*Just minutes walk from MRT shaw station and Edsa Crossing
-*Infront of St. Francis Church and Lourdes School Mandaluyong 
-*Bed cabinet fan provided
-*TV
-*Fully Furnished
-*Cooking allowed with Ref and stove
-*Laundry area
-*Free use of building amenities
-*Safe 24hr security and CCTV
-P3500/person
-For inquiries please call/text anne 09273258082</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/bedspace-condo-sharing-for-female-250633268/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=nlcm-CJz6oBqwl4S&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2019/09/10/bedspace_condo_sharing_for_female_1568093158_986dfd1d_progressive.jpg</t>
-  </si>
-  <si>
-    <t>Room for rent quezon city bedspace</t>
-  </si>
-  <si>
-    <t>..P4000 room. may sink and cr
-(hiwalay ang bayad ng tubig at kuryente) 
-malapit sa Lahat. 
-nilalakad lang sa ever mall,shopwise Commonwealth qc
-1 ride sa philcoa,cubao,quiapo, fairview
-makakauwi ka anytime dahil Hindi na kailangan mag special tricycle,lakad lang sakay ka na sa public transportation.
-1 month advance and 1 month dp
-NO PARKING sa car &amp; motor,bike(PARA WALANG HARANG) ,no pets
-Bedspace also available
-For male bedspace
-For female bedspace
-Mag tanong ka lang ;)</t>
-  </si>
-  <si>
-    <t>Matandang Balara</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/room-for-rent-quezon-city-bedspace-1065891076/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=nlcm-CJz6oBqwl4S&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2021/1/28/room_for_rent_quezon_city_beds_1611827154_9b090666_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/28/room_for_rent_quezon_city_beds_1611827154_16a89d03_progressive.jpg</t>
-  </si>
-  <si>
-    <t>Bedspace for Rent</t>
-  </si>
-  <si>
-    <t>Male or Female welcome.
-P1,250 per person, per month including water &amp; electric, ex cooking.
-2081a N. Cuevas St. Kalawaan, Pasig City. About 1km away from Pasig Market.
-Payment options.
-Option (A) 1 mth (P1,250) deposit, 1 mth (P1,250) rent (Total P2,500) at commencement + 1 mth after commencement (P1,250) and monthly thereafter.
-Option (B) 1 mth rent (P1,250) at commencement + 15 days after commencement - 1 mth deposit (P1250), + 1 mth after commencement 1 mth rent (P1,250) &amp; monthly thereafter.
-Option (C) 1 mth rent (P1,250) at commencement, + 15 days after commencement 1 mth deposit (P1,250) + 30 days after commencement - 15 days rent (P625), + every 15 days rent of (P625) thereafter.
-Dont ask if available.</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/bedspace-for-rent-238937376/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=nlcm-CJz6oBqwl4S&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2019/07/12/182244_238937376_4b7feba6.jpg</t>
-  </si>
-  <si>
-    <t>Affordable Bedspace for men(Preferably works in a callcenter)</t>
-  </si>
-  <si>
-    <t>Quezon City
-STRONG AND CLEAN WATER.
-NO FLOODING.
-CCTV PROTECTED VERY SAFE
-Located at: 12 AP Townhomes Don Faustino St. Don Antonio Heights, Q.C.
-5 mins. to Jollibee Isidora and Puregold.
-Walking distance from Commonwealth Hi-way( 10 mins.)
-NO Flooding.
-Safe and convenient.
-Free Wi-Fi.
-NEAR F.E.U.
-NATIONAL BOOKSTORE
-PUREGOLD
-AUB BANK
-PNB
-BDO
-CHINABANK
-SECURITY BANK
-SM Malls( SAN MATEO, FAIRVIEW, SM NORTH)
-CALLCENTER(One Felicity CENTER, Contact Solutions,, Afni, TechnoHub)
-Near Schools(U.P Diliman, F.E.U, AICS, STI
-, Mary the Queen College, Jollibee, Mcdonalds,
-Cebuana, Puregold, SandiganBayan, GPI, Silver Star).
-Mandarin Sky,
-Fitness First Gym
-Ideal for reviewer and students. Accept Transient
-NeTricycle station.
-Strong water and 24 hrs trans.
-Pls send sms for the add. &amp;amp; sched. of viewing. look for ms. Yumi
-globe-09264255908 smart -09073220018 /4277491
-lady bedspace quezon city
-lady bedspace quezon city
-Dormitory
-Pls send sms for the add. &amp;amp; sched. of viewing. look for ms. Yumi
-read more
-1 month ago In Townhouse
-Location
-Street Address
-12 AP Townhomes Don Faustino corner. Kasiyahan St.
-Unit Details
-Bedrooms
-4 Bedrooms
-Floor Area
-60 sqm.
-Furnishing
-Full</t>
-  </si>
-  <si>
-    <t>12 AP Townhomes Don Faustino corner. Kasiyahan St. Don Antonio Heigths Quezon City</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/affordable-bedspace-for-men-preferably-works-in-a-callcenter-1043683023/?t-id=TUdU8gvJKO_1611902499002&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=nlcm-CJz6oBqwl4S&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2020/10/21/affordable_bedspace_for_menpre_1603294311_e3281808_progressive, https://media.karousell.com/media/photos/products/2020/10/21/affordable_bedspace_for_menpre_1603294311_a8fdc8e1_progressive, https://media.karousell.com/media/photos/products/2020/10/21/affordable_bedspace_for_menpre_1603294311_54297c00_progressive, https://media.karousell.com/media/photos/products/2020/10/21/affordable_bedspace_for_menpre_1603294311_c9471c61_progressive, https://media.karousell.com/media/photos/products/2020/10/21/affordable_bedspace_for_menpre_1603294311_ff4fe738_progressive, https://media.karousell.com/media/photos/products/2020/10/21/affordable_bedspace_for_menpre_1603294311_56a9031d_progressive</t>
+    <t>Female Bedspace at Axis Residences</t>
+  </si>
+  <si>
+    <t>- Axis Residences is located along Pioneer St., Mandaluyong City, right next to Cybergate 3
+- Amenities include free use of gym, outdoor pool and basketball court 
+-The unit is fully furnished 
+- Kitchen is furnished with a ref, microwave, induction stove, range hood 
+- Bedroom is furnished with AC, Ddecks &amp; mattress, 4 wardrobe cabinet (1 cabinet per tenant) 
+- Each bedspace has its own curtain for privacy &amp; to block out all light for undisturbed sleep    
+- Free use of gym &amp; outdoor swimming pool   
+- Upper deck rate is Php4500, lower deck rate isPhp4700   
+- Rental rate does not include condo dues, Water and Electric bill 
+- Condo Dues is 500 per person
+Minimum length of stay: 6 months
+Terms of payment: 1 month advance, 2 months deposit</t>
+  </si>
+  <si>
+    <t>Pioneer St</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/female-bedspace-at-axis-residences-1010100366/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=5ZYywsjlavWpm5Ah&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/12/26/female_bedspace_at_axis_reside_1608975922_b1fc1c45_progressive.jpg, https://media.karousell.com/media/photos/products/2020/12/26/female_bedspace_at_axis_reside_1608975922_1f74e421_progressive.jpg, https://media.karousell.com/media/photos/products/2020/12/26/female_bedspace_at_axis_reside_1608975922_d5385d9e_progressive.jpg, https://media.karousell.com/media/photos/products/2020/7/20/female_bedspace_at_axis_reside_1595257204_8365346b_progressive, https://media.karousell.com/media/photos/products/2020/7/20/female_bedspace_at_axis_reside_1595261936_1639a6fb_progressive.jpg, https://media.karousell.com/media/photos/products/2020/7/20/female_bedspace_at_axis_reside_1595261936_0d8dc45d_progressive.jpg, https://media.karousell.com/media/photos/products/2020/7/20/female_bedspace_at_axis_reside_1595261936_ec6d0e1e_progressive.jpg, https://media.karousell.com/media/photos/products/2020/7/20/female_bedspace_at_axis_reside_1595261782_98a011b2_progressive, https://media.karousell.com/media/photos/products/2020/7/20/female_bedspace_at_axis_reside_1595262148_1e1e79cb_progressive, https://media.karousell.com/media/photos/products/2020/7/20/female_bedspace_at_axis_reside_1595262148_4cd95862_progressive</t>
+  </si>
+  <si>
+    <t>Bedspace for Girl only</t>
+  </si>
+  <si>
+    <t>BEDSPACE FOR GIRLS  in the most safest place in manila Area, Bagong lipunan ng Crame quezon City.
+RENT PER MONTH:
+4,500 lower deck
+4000 upper deck
+ except water and electricity bill..
+WITH 24 HOURS SECURITY....
+TERMS:
+one month advance and 2months deposit
+with 1 year minimum contract.
+Free use of:
+3 in 1 washing machine
+Windows type aircon
+Mini refrigerator
+Flat screen led TV
+Induction cooker 
+Condominium amenities(Swimming pool and  exercise area)
+For inquiry please contact 09310055336
+Requirements:
+NBI
+1 Government ID
+If student: student ID with NBI
+If working: company ID with NBI</t>
+  </si>
+  <si>
+    <t>Avida Tower New Manila</t>
+  </si>
+  <si>
+    <t>Bagong Lipunan Ng Crame</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspace-for-girl-only-1062181534/?t-id=oLMlImum_3_1612502621903&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=zT0doi5ymwaKsOpr&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/1/12/bedspace_for_girl_only_1610424932_431ba189_progressive.jpg</t>
   </si>
 </sst>
 </file>
@@ -796,39 +776,39 @@
         <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="n">
-        <v>22.0</v>
+        <v>5200.0</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
@@ -854,31 +834,31 @@
         <v>35</v>
       </c>
       <c r="B4" t="n">
-        <v>2800.0</v>
+        <v>2100.0</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
@@ -890,10 +870,10 @@
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
         <v>23</v>
@@ -901,49 +881,49 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="n">
-        <v>2000.0</v>
+        <v>3500.0</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
         <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
@@ -951,34 +931,34 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" t="n">
-        <v>4800.0</v>
+        <v>5500.0</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
         <v>23</v>
@@ -990,10 +970,10 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
         <v>23</v>
@@ -1001,34 +981,34 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" t="n">
-        <v>3500.0</v>
+        <v>3000.0</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
         <v>23</v>
@@ -1040,10 +1020,10 @@
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
@@ -1051,34 +1031,34 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8" t="n">
-        <v>3000.0</v>
+        <v>2500.0</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
         <v>23</v>
@@ -1090,10 +1070,10 @@
         <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s">
         <v>23</v>
@@ -1101,34 +1081,34 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B9" t="n">
-        <v>4499.0</v>
+        <v>3500.0</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s">
         <v>23</v>
@@ -1140,60 +1120,60 @@
         <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B10" t="n">
-        <v>3500.0</v>
+        <v>4000.0</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
         <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
         <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s">
         <v>23</v>
@@ -1201,49 +1181,49 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" t="n">
-        <v>3000.0</v>
+        <v>2500.0</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
       </c>
       <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
         <v>85</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
         <v>86</v>
       </c>
-      <c r="J11" t="s">
+      <c r="O11" t="s">
         <v>87</v>
-      </c>
-      <c r="K11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" t="s">
-        <v>88</v>
-      </c>
-      <c r="O11" t="s">
-        <v>89</v>
       </c>
       <c r="P11" t="s">
         <v>23</v>
@@ -1251,49 +1231,49 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="n">
+        <v>37000.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="n">
-        <v>3250.0</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
         <v>91</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
       </c>
       <c r="G12" t="s">
         <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s">
         <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s">
         <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P12" t="s">
         <v>23</v>
@@ -1301,49 +1281,49 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" t="n">
-        <v>6500.0</v>
+        <v>3000.0</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
         <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
         <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
         <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s">
         <v>23</v>
@@ -1351,34 +1331,34 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" t="n">
-        <v>2500.0</v>
+        <v>4500.0</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
         <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s">
         <v>23</v>
@@ -1390,10 +1370,10 @@
         <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P14" t="s">
         <v>23</v>
@@ -1401,49 +1381,49 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B15" t="n">
-        <v>2300.0</v>
+        <v>3000.0</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s">
         <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M15" t="s">
         <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P15" t="s">
         <v>23</v>
@@ -1451,13 +1431,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" t="n">
         <v>3500.0</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1466,19 +1446,19 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K16" t="s">
         <v>23</v>
@@ -1490,30 +1470,30 @@
         <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B17" t="n">
-        <v>3999.0</v>
+        <v>6500.0</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -1522,28 +1502,28 @@
         <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="K17" t="s">
         <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M17" t="s">
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" t="s">
         <v>23</v>
@@ -1551,19 +1531,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18" t="n">
-        <v>1250.0</v>
+        <v>4500.0</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -1572,13 +1552,13 @@
         <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
         <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s">
         <v>23</v>
@@ -1590,10 +1570,10 @@
         <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O18" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P18" t="s">
         <v>23</v>
@@ -1601,49 +1581,49 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B19" t="n">
-        <v>1700.0</v>
+        <v>4500.0</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s">
         <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M19" t="s">
         <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P19" t="s">
         <v>23</v>

--- a/CarousellData.xlsx
+++ b/CarousellData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
   <si>
     <t>Unit Name</t>
   </si>
@@ -60,6 +60,166 @@
   </si>
   <si>
     <t>Special Character?</t>
+  </si>
+  <si>
+    <t>Smdc shore 1 Condosharing condoshare bedspace</t>
+  </si>
+  <si>
+    <t>smdc shore 1 
+tower d
+rm734-7th floor
+in front of SM Moa
+need 4person
+p20000/month
+or p5,000 bedspace/per head
+inclusive condo dues
+water &amp; electricity share by tenant
+sms-0922-8866120</t>
+  </si>
+  <si>
+    <t>Bedrooms</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Very Responsive</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/smdc-shore-1-condosharing-condoshare-bedspace-1050627571/?t-id=7cWTSNfYfn_1613983964416&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=cpgHOfjJVmso6zHL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/11/21/smdc_shore_1_condosharing_cond_1605975877_55a6117b_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_shore_1_condosharing_cond_1605975878_fa868f2b_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_shore_1_condosharing_cond_1605975878_fab5c49b_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_shore_1_condosharing_cond_1605975878_5d24d3b3_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_shore_1_condosharing_cond_1605975878_ca54325c_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Bedspace Near SM City Sta. Mesa and LRT 2 Station in V. Mapa</t>
+  </si>
+  <si>
+    <t>The Silk Residences Tower 1 In Ramon Magsaysay Blvd., Santol 
+Street, Sta Mesa, Manila.
+Studio 23 SQM
+Monthly Rent is 4,000. with Security Deposit 4,000.
+Accept : Female Bedspacers Only
+Minimum 6 months rent
+Call or Text : 0956 830 62 51</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspace-near-sm-city-sta-mesa-and-lrt-2-station-in-v-mapa-1041605403/?t-id=7cWTSNfYfn_1613983964416&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=cpgHOfjJVmso6zHL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_ffa0af5f_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_ea522cf9_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_21f755a3_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_0201b241_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_34eaece8_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_c12c8587_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_2ff165fc_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_829d6b4a_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_c21b81cd_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_03a1c006_progressive</t>
+  </si>
+  <si>
+    <t>SMDC Mezza residences condoshare bedspace Condosharing</t>
+  </si>
+  <si>
+    <t>SMDC Mezza residences -in front of CCP, near UERM, SM sta mezA, MRT sta, along aurora Blvd.
+Tower 3, 36th floor penthouse
+3 bedroom-3 toilet
+need 3 females in one room
+p4000 / bedspace/per head
+inclusive condo dues.
+water &amp; electricity share by tenant
+SMS -0922-8866120</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/smdc-mezza-residences-condoshare-bedspace-condosharing-1050607145/?t-id=7cWTSNfYfn_1613983964416&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=cpgHOfjJVmso6zHL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/11/21/smdc_mezza_residences_condosha_1605970200_5063a23a_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_mezza_residences_condosha_1605970201_f73f8320_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_mezza_residences_condosha_1605970201_df18f45f_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_mezza_residences_condosha_1605970201_423efd75_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_mezza_residences_condosha_1605970201_ccf5787b_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_mezza_residences_condosha_1605970201_dafc109f_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_mezza_residences_condosha_1605970202_c52ad49b_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Bedspace for Rent - Ladies</t>
+  </si>
+  <si>
+    <t>Female Bedspace for Rent near San Andres Malate, Manila
+-Exclusive for Ladies
+-Php 2,500/month
+-Electricity and water already included in the rent
+-No curfew
+-Convenient location for people applying to work abroad, employees, OJT students
+Message us for more details.</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspace-for-rent-ladies-239185562/?t-id=7cWTSNfYfn_1613983964416&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=cpgHOfjJVmso6zHL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_d52b1828_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_48af0582_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_3aec2437_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_b68230bc_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_33535da3_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Bedspace For Male Mandaluyong</t>
+  </si>
+  <si>
+    <t>Rm Solo/Shared 
+Initial Paymt: 4-Gives or P500 ONLY
+Monthly Rent: 2-Gives
+Looking For: Male Young Professionals (Decent)
+Age: 20-45
+Reqs.: (ID Pix, Co. ID, Any Gov't ID, NBI Clearance) 
+Various Perks and Privileges: 
+1. The whole townhouse unit is usable, with ac, fully furnished 
+2. No Curfew, gate/Rm keys provided 
+3. 24-hours water supply &amp; transportation
+4. Housekeeper's Provided
+5. Free Pick-up and Delivery of Laundry Services 
+6. Group WIFI access 
+7. Free Parking space 
+8. Accessible to all primary needs
+9. Events &amp; Activities 
+10.Various Discounts 
+For more details, u may text me at 0917-5113088. U may visit d place 2 appreciate &amp; we will discuss all the perks and privileges. - MARC</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspace-for-male-mandaluyong-238486060/?t-id=7cWTSNfYfn_1613983964416&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=cpgHOfjJVmso6zHL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_b00edfa7.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_719e1e68.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_32f21557.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_d1d2e999.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_1f516216.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_e85abcd2.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_94745904.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_89f02bb9.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_fa0dfc30.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_9c7c6ccf.jpg</t>
+  </si>
+  <si>
+    <t>Moonwalk Paranaque Bedspace for rent</t>
+  </si>
+  <si>
+    <t>*Prices is per head
+*Free water and electric 
+(Shower and Fan only *NO LAUNDRY ALLOWED)
+*Near Mcdo Moonwalk
+*Near 7-11 &amp; other 24/hrs convenient store
+*Near BDO 
+*Near SM Sucat and Bicutan
+*ONLY 2 person in each room
+*We also accept short term/transient (please call/txt for inquiry)</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/moonwalk-paranaque-bedspace-for-rent-243185456/?t-id=7cWTSNfYfn_1613983964416&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=cpgHOfjJVmso6zHL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/08/01/153441_243185456_d560711a.jpg, https://media.karousell.com/media/photos/products/2019/08/01/153441_243185456_452021d1.jpg, https://media.karousell.com/media/photos/products/2019/08/01/153441_243185456_f52bbf05.jpg</t>
+  </si>
+  <si>
+    <t>Condo Sharing Bedspace</t>
+  </si>
+  <si>
+    <t>4,500php per month. All in kasama na tubig at kuryente, Aircon room, wifi and own CR wala ng ibang babayaran provided na din ung bed at ibang gamit, kahit damit nalang dalhin mo. 
+Sa second floor po ung room, 
+Downstairs naman ung kitchen, w/ refrigerator,microwave, rice cooker &amp; electric kettle.
+Free use of pool, gym and other facilities.
+Bedspace po ito. For FEMALE ONLY!!
+Location: Gateway Garden heights sa tabi lang Ng Robinson's forum kaya marami Ka mabibilhan Ng pagkaen. Malapit din sa lahat Ng sakayan kaya wala Ng masyadong lakad.
+Para sa mga interesado paki message nalang ako sa FB account ko... 
+Lanzce Descartin
+Thanks, God bless.</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/condo-sharing-bedspace-243190069/?t-id=7cWTSNfYfn_1613983964416&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=cpgHOfjJVmso6zHL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_2e685974.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_1f4881f0.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_ad3dab89.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_bff34032.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_04030b0e.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_b914c72a.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_5bb01004.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_f49243a7.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_b750303f.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_035f34e7.jpg</t>
   </si>
 </sst>
 </file>
@@ -160,6 +320,356 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2700.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CarousellData.xlsx
+++ b/CarousellData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="240">
   <si>
     <t>Unit Name</t>
   </si>
@@ -62,77 +62,1191 @@
     <t>Special Character?</t>
   </si>
   <si>
-    <t>Smdc shore 1 Condosharing condoshare bedspace</t>
-  </si>
-  <si>
-    <t>smdc shore 1 
-tower d
-rm734-7th floor
-in front of SM Moa
-need 4person
-p20000/month
-or p5,000 bedspace/per head
-inclusive condo dues
-water &amp; electricity share by tenant
-sms-0922-8866120</t>
-  </si>
-  <si>
-    <t>Bedrooms</t>
+    <t>Wanted Male/Female Bedspacers</t>
+  </si>
+  <si>
+    <t>Female &amp; Male Bedspacers
+icon
+Mandaluyong City
+*Three-storey townhouse (renovated and fully furnished)
+*Male boarders/tenants*Rooms for sharing (4-6 in a room)
+*monthly rental (rental, electricity, water)
+= 3500 for Aircon rooms
+*Common Areas such living room, dining area, kitchen
+*Complete basic appliances such as television (2 sets), refrigerator and electric fans
+*Individual cabinets per tenant
+*Easy access to MRT Boni (1 jeepney ride), establishments (fastfoood, restaurants, groceries, drugstores, etc.) and banks
+*One month cash advance and only one month deposit.*Strong water and flood free.
+Address: 643-A Maharlika St. , Brgy. Plainview , Mandaluyong City .
+For inquiry 0999 409 5612</t>
+  </si>
+  <si>
+    <t>643 A Maharlika St Plainview Mandaluyong City</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Very Responsive</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/smdc-shore-1-condosharing-condoshare-bedspace-1050627571/?t-id=7cWTSNfYfn_1613983964416&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=cpgHOfjJVmso6zHL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2020/11/21/smdc_shore_1_condosharing_cond_1605975877_55a6117b_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_shore_1_condosharing_cond_1605975878_fa868f2b_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_shore_1_condosharing_cond_1605975878_fab5c49b_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_shore_1_condosharing_cond_1605975878_5d24d3b3_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_shore_1_condosharing_cond_1605975878_ca54325c_progressive.jpg</t>
-  </si>
-  <si>
-    <t>Bedspace Near SM City Sta. Mesa and LRT 2 Station in V. Mapa</t>
-  </si>
-  <si>
-    <t>The Silk Residences Tower 1 In Ramon Magsaysay Blvd., Santol 
-Street, Sta Mesa, Manila.
-Studio 23 SQM
-Monthly Rent is 4,000. with Security Deposit 4,000.
-Accept : Female Bedspacers Only
-Minimum 6 months rent
-Call or Text : 0956 830 62 51</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/bedspace-near-sm-city-sta-mesa-and-lrt-2-station-in-v-mapa-1041605403/?t-id=7cWTSNfYfn_1613983964416&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=cpgHOfjJVmso6zHL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_ffa0af5f_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_ea522cf9_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_21f755a3_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_0201b241_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_34eaece8_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_c12c8587_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_2ff165fc_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_829d6b4a_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_c21b81cd_progressive, https://media.karousell.com/media/photos/products/2020/10/13/bedspace_near_sm_city_sta_mesa_1602584117_03a1c006_progressive</t>
-  </si>
-  <si>
-    <t>SMDC Mezza residences condoshare bedspace Condosharing</t>
-  </si>
-  <si>
-    <t>SMDC Mezza residences -in front of CCP, near UERM, SM sta mezA, MRT sta, along aurora Blvd.
-Tower 3, 36th floor penthouse
-3 bedroom-3 toilet
-need 3 females in one room
-p4000 / bedspace/per head
-inclusive condo dues.
-water &amp; electricity share by tenant
-SMS -0922-8866120</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/smdc-mezza-residences-condoshare-bedspace-condosharing-1050607145/?t-id=7cWTSNfYfn_1613983964416&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=cpgHOfjJVmso6zHL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2020/11/21/smdc_mezza_residences_condosha_1605970200_5063a23a_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_mezza_residences_condosha_1605970201_f73f8320_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_mezza_residences_condosha_1605970201_df18f45f_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_mezza_residences_condosha_1605970201_423efd75_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_mezza_residences_condosha_1605970201_ccf5787b_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_mezza_residences_condosha_1605970201_dafc109f_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/21/smdc_mezza_residences_condosha_1605970202_c52ad49b_progressive.jpg</t>
+    <t>Metro Manila (NCR)</t>
+  </si>
+  <si>
+    <t>Mandaluyong City</t>
+  </si>
+  <si>
+    <t>Plainview</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/wanted-male-female-bedspacers-1069463829/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=prsRcfbmuXzU26mz&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/2/14/wanted_malefemale_bedspacers_1613315728_84030427_progressive, https://media.karousell.com/media/photos/products/2021/2/14/wanted_malefemale_bedspacers_1613315728_522c4b78_progressive, https://media.karousell.com/media/photos/products/2021/2/14/wanted_malefemale_bedspacers_1613315728_33fbaf3a_progressive, https://media.karousell.com/media/photos/products/2021/2/14/wanted_malefemale_bedspacers_1613315728_02dddf49_progressive</t>
+  </si>
+  <si>
+    <t>Male Bedspace Condo-sharing Makati near Ayala</t>
+  </si>
+  <si>
+    <t>Good day !
+Our Makati Condo sharing near cash &amp; carry and LRT Gil Puyat station if you are looking for a place near to work place and accessible of all transpo and near all the Malls &amp; Medical store it's good for you our Unit are still have few slots available for Male Working.
+Inclusion
+- Water &amp; Electricity
+- Wifi &amp; Cable
+- Fridge &amp; stove
+- Sofa &amp; Dining set
+- Bed &amp; foam
+- Cabinet
+- Ceiling fan &amp; stand fan
+- Once a week cleaning
+- unit keys
+Requirements
+- rapid test if no rapid we also allow brgy cert and brgy clearance
+- 2 photo copies of valid IDs
+- 3 or 6 months contract
+- 1 month advance and 1 month deposit
+for more details you can send a message to admin Anthony - 09069125200 
+Thank you</t>
+  </si>
+  <si>
+    <t>Building IPI Buendia tower Sen. Gil puyat Ave Brgy Palanan Makati City.</t>
+  </si>
+  <si>
+    <t>Makati City</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/male-bedspace-condo-sharing-makati-near-ayala-1030615786/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=prsRcfbmuXzU26mz&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/8/24/male_bedspace_condosharing_mak_1598243023_87fe375f_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/24/male_bedspace_condosharing_mak_1598243023_d48b7621_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/24/male_bedspace_condosharing_mak_1598243023_110c38fb_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/24/male_bedspace_condosharing_mak_1598243023_f930c87e_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Dorm Room Rent Dormitory Apartment Bedspace Pasig Ortigas</t>
+  </si>
+  <si>
+    <t>We are a family owned apartment and dormitory company offering affordable housing solutions. We are tapping into the close proximity companies to approach this with a sustainable aspect by reducing the carbon footprints associated with travel and traffic. This also promotes productivity by reducing travel time, improved employee welfare by eliminating the long commute, and savings from transportation costs.This also reduces the risk of exposure of your employees to external elements in these period of health uncertainties. 
+We are promoting our dormitory style units that can accommodate anywhere from single to 6 pax rooms. We have a total of 146 beds in 38 rooms, and several companies have made this available to their employees either as an option and sometimes even as a benefit. We are also POGO free in the entire building.
+We can either set a meeting for us to explain further or schedule a visit to inspect our units. 
+Imee or Joyce
+0977-463 5649
+(02) 7747-2631</t>
+  </si>
+  <si>
+    <t>Sta. Rosa de Lima Extension, Bagong Ilog</t>
+  </si>
+  <si>
+    <t>Pasig City</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/dorm-room-rent-dormitory-apartment-bedspace-pasig-ortigas-1022906664/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=prsRcfbmuXzU26mz&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/7/23/dorm_room_rent_dormitory_apart_1595472915_6d6e7509_progressive, https://media.karousell.com/media/photos/products/2020/7/23/dorm_room_rent_dormitory_apart_1595472915_406fb84a_progressive, https://media.karousell.com/media/photos/products/2020/7/23/dorm_room_rent_dormitory_apart_1595472915_b9d9f739_progressive, https://media.karousell.com/media/photos/products/2020/7/23/dorm_room_rent_dormitory_apart_1595472915_c10b0f61_progressive, https://media.karousell.com/media/photos/products/2020/7/23/dorm_room_rent_dormitory_apart_1595472915_e122bb94_progressive, https://media.karousell.com/media/photos/products/2020/7/23/dorm_room_rent_dormitory_apart_1595472915_d5d7ee9b_progressive, https://media.karousell.com/media/photos/products/2020/7/23/dorm_room_rent_dormitory_apart_1595472915_d04e817b_progressive, https://media.karousell.com/media/photos/products/2020/7/23/dorm_room_rent_dormitory_apart_1595472915_9c057e1e_progressive, https://media.karousell.com/media/photos/products/2020/7/23/dorm_room_rent_dormitory_apart_1595472916_c7c794be_progressive, https://media.karousell.com/media/photos/products/2020/7/23/dorm_room_rent_dormitory_apart_1595472916_b045cdd5_progressive</t>
+  </si>
+  <si>
+    <t>Male Bedspace Condo Sharing Room Rent Condo Share Ortigas Mandaluyong</t>
+  </si>
+  <si>
+    <t>We're located at Ortigas Center, Mandaluyong City. Just a few minutes walk going to Robinson's Galleria, Shangri-La Mall, The Podium, SM Megamall, Ayala 30th Mall, Capitol Commons, Greenfield. We're also a few minutes walk to office buildings within the business area.
+Our condo unit is fully-furnished. Rate is P5,500 per month. Exclusive for male occupants. Very secured, safe, clean and organized. To schedule a viewing, text us at 09954730348.</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/male-bedspace-condo-sharing-room-rent-condo-share-ortigas-mandaluyong-239105075/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=prsRcfbmuXzU26mz&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/09/04/male_bedspace_condo_sharing_room_rent_condo_share_ortigas_mandaluyong_1567533726_2ef545cf0_progressive, https://media.karousell.com/media/photos/products/2019/09/04/male_bedspace_condo_sharing_room_rent_condo_share_ortigas_mandaluyong_1567533726_309b73ef1_progressive, https://media.karousell.com/media/photos/products/2019/09/04/male_bedspace_condo_sharing_room_rent_condo_share_ortigas_mandaluyong_1567533726_9496b54b2_progressive</t>
+  </si>
+  <si>
+    <t>2 Newly refurbished Lady Bedspace rooms</t>
+  </si>
+  <si>
+    <t>Lady Bedspace with up to 100 mbps, aircon and non-ac rooms.
+✅DETAILS:
+-Fixed ALL IN, bills are included in the rent
+-Drinking water with hot and cold water dispenser
+-Unlimited Fiber wifi (Plan 100 MBPS with 3 wifi routers)
+-Cleaner visits once a week
+-Free TV use
+-Free Refrigerator use
+-Free use of common terrace, sala and kitchen
+-3 Common CR
+-Butane stove
+-Free landline phone use
+-No curfew
+-Visitors allowed
+-CCTV
+-Keys provided (Must be surrendered once tenancy ends)
+-No extra fee for gadgets, manual laundry, rice cooker, etc
+-100 fee per use of washing machine/500 fee unli use of washing machine per month
+✅2500 FAN ROOM (MAX OF 6):
+-1 fan each
+-Double deck bed with uratex foam
+-Orocan drawer with lock
+✅3000 AC ROOM (MAX OF 6):
+-Aircon 14 hours a day
+-Double deck bed with uratex foam
+-Orocan drawers
+✅2500 FAN ROOM (MAX OF 8):
+-1 fan each
+-Double deck bed with uratex foam
+-Lockers
+✅3000 FAN ROOM (MAX OF 4):
+-1 fan each
+-Double deck bed with uratex foam
+-Lockers
+✅3500 AC ROOM (MAX OF 2):
+-Aircon 12 hours a day
+-Double deck bed with uratex foam
+-Drawers
+✅1 MONTH ADVANCE, 1 MONTH DEPOSIT (MINIMUM OF 2 MONTHS)
+FIRST COME FIRST SERVE
+JUST SHOW 2 VALID ID OR NBI CLEARANCE/POLICE CLEARANCE
+✅ADDRESS:
+6176 Salvador Estate Dr. A Santos Avenue Brgy San Isidro Sucat Paranaque City
+✅LANDMARK:
+Green gate with pole bamboos and bougainvillea beside dental clinic and bridge. (The place can be seen from the highway already)
+1 RIDE AWAY FROM CITY OF DREAMS, SM SUCAT, NAIA, MIA, SM BF, SANTANA GROVE, PASCOR, OLIVAREZ, VALLEY 2, LOPEZ,VALLEY 1, BACLARAN ETC
+WALKING DISTANCE FROM EVACOM, GATCHALIAN, PATTS, AND UNIVERSAL COLLEGE
+✅PM OR CONTACT 09956121049// 09777128208 FOR MORE INFO. THANKS</t>
+  </si>
+  <si>
+    <t>6176 Salvador Estate Sucat Brgy San Isidro</t>
+  </si>
+  <si>
+    <t>Paranaque City</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/2-newly-refurbished-lady-bedspace-rooms-256373194/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=prsRcfbmuXzU26mz&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/10/12/2_newly_refurbished_lady_bedspace_rooms_1570878029_8dbebcc0_progressive.jpg, https://media.karousell.com/media/photos/products/2019/10/12/2_newly_refurbished_lady_bedspace_rooms_1570878029_6bec819a_progressive.jpg, https://media.karousell.com/media/photos/products/2019/10/12/2_newly_refurbished_lady_bedspace_rooms_1570878029_e56be3c5_progressive.jpg, https://media.karousell.com/media/photos/products/2019/10/12/2_newly_refurbished_lady_bedspace_rooms_1570878030_5d4f0f27_progressive.jpg, https://media.karousell.com/media/photos/products/2019/10/12/2_newly_refurbished_lady_bedspace_rooms_1570878030_9518aa82_progressive.jpg, https://media.karousell.com/media/photos/products/2019/10/12/2_newly_refurbished_lady_bedspace_rooms_1570878030_968aa42a_progressive.jpg, https://media.karousell.com/media/photos/products/2019/10/12/2_newly_refurbished_lady_bedspace_rooms_1570878030_a3b02642_progressive.jpg, https://media.karousell.com/media/photos/products/2019/10/12/2_newly_refurbished_lady_bedspace_rooms_1570878030_92ec4fab_progressive.jpg, https://media.karousell.com/media/photos/products/2019/10/12/2_newly_refurbished_lady_bedspace_rooms_1570878030_06988557_progressive.jpg, https://media.karousell.com/media/photos/products/2019/10/12/2_newly_refurbished_lady_bedspace_rooms_1570878030_99afc637_progressive.jpg</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Bedspace near BGC Bonifacio Global City SM Aura MarketMarket</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspace-near-bgc-bonifacio-global-city-sm-aura-marketmarket-238877671/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=prsRcfbmuXzU26mz&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/07/12/180308_238877671_79e2fe93.jpg, https://media.karousell.com/media/photos/products/2019/07/12/180308_238877671_5f2461b5.jpg, https://media.karousell.com/media/photos/products/2019/07/12/180308_238877671_99b864ec.jpg, https://media.karousell.com/media/photos/products/2019/07/12/180308_238877671_87358444.jpg, https://media.karousell.com/media/photos/products/2019/07/12/180308_238877671_56e9c2c2.jpg, https://media.karousell.com/media/photos/products/2019/07/12/180308_238877671_bdf5e266.jpg, https://media.karousell.com/media/photos/products/2019/07/12/180308_238877671_fabafc64.jpg, https://media.karousell.com/media/photos/products/2019/07/12/180308_238877671_988e7eea.jpg</t>
+  </si>
+  <si>
+    <t>Bedspace at SMDC Light Residences Penthouse</t>
+  </si>
+  <si>
+    <t>Bedspace/Condominium Sharing
+at
+SMDC Light Residences EDSA corner Madison Street, Mandaluyong City
+Penthouse (50th floor)
+Tower 1 (Main Tower - Has the Main Lobby and connected light mall through 3rd floor)
+3 options:
+Living Room Bunk Beds - PHP5,000 per bedspace/person (4 Bedspace Available)
+Bedroom 1 (Pink) - PHP5,500 per bedspace/person (5 Bedspace Available)
+Bedroom 2 (Blue) - PHP6,000 per bedspace/person (3 Bedspace Available)
+Terms:
+•1 month deposit, 1 month advance
+•6 months contract - renewable
+Inclusions and Amenities:
+•Electricity Bill worth PHP10,000
+•Monthly Dues/Water Bill
+•Wifi
+•Cabled TV
+•Refrigerator
+•Water Heater
+•Rice Cooker
+•Upholstered Leather Foam Mattress per bed
+•4 burner stove
+•Rangehood
+•Cookingwares
+•2 air conditioning units
+•1 stand fan for living room 
+•customized full mirror in the bathroom
+•customized full body mirror in each bedroom
+•3 window blinds (1 in the living room, 1 in each bedroom)
+•customized full mirror on the kitchen countertop
+- Has Direct Access to Boni MRT Station
+- Has Bus Stop in front of the Condominium/Mall Building
+- Mall underneath - SM Light Mall
+•Our unit is situated in Tower 1 : the middle of the residence (main tower/main entrance)
+•Has a Direct secured access to and from the mall at the 3rd floor
+•Has a Direct secured access to and from the main lobby via 8th floor (pool, gym, and function rooms), and direct to the ground floor (main lobby/entrance).
+•Own digital cinemas, Savemore Market.
+Amenities:
+•4 swimming pools (2 lap pool; 4ft and 2 kiddie pool; 2ft)
+•Gazebos
+•3 Function rooms
+•Gym
+•Jogging Path
+•Children’s Play Area
+•WiFi Zones
+Facilities:
+•4 Fast Elevators
+•Automatic Fire Detection and Sprinklers
+•Alarm System
+•Standby Generator
+•Water Tank
+•24 hours Security
+•Mail room
+•CCTV System
+•Garbage Disposal on every floor
+•Mall beneath your condominium
+•Near cities are Makati City, Mandaluyong City, Pasig City, San Juan City, Taguig City, Pasay City, Quezon City, and City of Manila
+•Nearby Shopping Malls Robinsons Pioneer, SM Megamall, Starmall Shaw, Shangri-la Plaza, The Podium, Robinsons Galleria Ortigas, Greenhills Shopping Center, Powerplant Mall, Glorietta, SM Makati, SM Mall of Asia, Gateway Mall, and Farmers Plaza
+•Has a wonderful view of the skyline during day and city lights at night</t>
+  </si>
+  <si>
+    <t>SMDC Light Residences EDSA corner Madison Street, Mandaluyong City</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspace-at-smdc-light-residences-penthouse-261536288/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=prsRcfbmuXzU26mz&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/12/21/male_bedspace_at_smdc_light_residences_penthouse_1576901335_e053f944_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/10/male_bedspace_at_smdc_light_residences_penthouse_1573347554_5da77990_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/10/male_bedspace_at_smdc_light_residences_penthouse_1573347554_9cec4d57_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/10/male_bedspace_at_smdc_light_residences_penthouse_1573347554_61deeee9_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/10/male_bedspace_at_smdc_light_residences_penthouse_1573347555_0bb49c47_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/10/male_bedspace_at_smdc_light_residences_penthouse_1573347555_fe1fa927_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/10/male_bedspace_at_smdc_light_residences_penthouse_1573347555_1ab5bca5_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/10/male_bedspace_at_smdc_light_residences_penthouse_1573347555_046ebb3b_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/10/male_bedspace_at_smdc_light_residences_penthouse_1573347555_ecafd9f1_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/10/male_bedspace_at_smdc_light_residences_penthouse_1573347555_ae7e1996_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Male Bedspace Dormitory near Cash &amp; Carry and Ayala</t>
+  </si>
+  <si>
+    <t>Makati Male Bedspace is still have few slot available, The unit is walking distance to RCBC Plaza and 1 ride to Ayala and Glorrieta 
+Inclusion
+- Water/Electricity
+- Wifi/Cable
+- Sofa/Dining
+- Fridge &amp;  fridge / water dispenser
+- Bed/Foam
+- Lockers
+- Once a week cleaning
+Requirements
+- 2 photo copies valid I.D before move in
+- 6 months contract
+- 1 month adv &amp; 1 month dep 
+- Brgy Certificate or Brgy Clearance also bring if you have rapid test
+for details you can text this # 09069125200 for more details
+Thank you.</t>
+  </si>
+  <si>
+    <t>4310c Emilia st, Brgy Palanan Makati City</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/male-bedspace-dormitory-near-cash-carry-and-ayala-1004640415/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=prsRcfbmuXzU26mz&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/8/22/male_bedspace_dormitory_near_c_1598066853_d71d83ae_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/22/male_bedspace_dormitory_near_c_1598066853_47568f0d_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/22/male_bedspace_dormitory_near_c_1598066853_7ea94bce_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/22/male_bedspace_dormitory_near_c_1598066853_77913673_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Lady bedspacer paranaque</t>
+  </si>
+  <si>
+    <t>Lady bedspacer
+1 month deposit
+1 month advance
+Villanueva village Bgy San dionisio 
+Sucat Paranaque 
+Across lianas evacom
+Minimum stay 2 months
+09330850891
+09195747953</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/lady-bedspacer-paranaque-238848919/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=prsRcfbmuXzU26mz&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/07/12/175337_238848919_c601fa38.jpg</t>
+  </si>
+  <si>
+    <t>MALE BEDSPACE Dormitory near Cash &amp;Carry and LRT Gil Puyat station</t>
+  </si>
+  <si>
+    <t>Our Makati Dormitory still available located at 4310c emilia st near jollibee bautista and cash &amp; carry it's gated unit and flood free
+inclusion
+- Water &amp;Electricity
+- Wifi &amp; Cable 
+- Water Dispenser, Electric Stove &amp; fridge 
+- Sofa &amp; Dining set 
+- Bed &amp; foam 
+- Ceiling Fan &amp; Stand fan
+- Locker
+- Bathrooms 
+- Once a week cleaning 
+requirements 
+- valid ids
+- rapid test or swab test if no rapid health Certificate 
+payment method 
+- 6 months contract with 1 month Advance &amp; deposit
+- 3 months contract with Advance only
+for the you can text me 09069125200</t>
+  </si>
+  <si>
+    <t>4310c Emilia St, Brgy Palanan Makati City</t>
+  </si>
+  <si>
+    <t>Palanan</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/male-bedspace-dormitory-near-cash-carry-and-lrt-gil-puyat-station-1046993258/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=prsRcfbmuXzU26mz&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/11/5/male_bedspace_dormitory_near_c_1604562182_44d333c2_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/5/male_bedspace_dormitory_near_c_1604562182_03f6709b_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/5/male_bedspace_dormitory_near_c_1604562183_5f606291_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/5/male_bedspace_dormitory_near_c_1604562183_e811f900_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/5/male_bedspace_dormitory_near_c_1604562183_750db348_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/5/male_bedspace_dormitory_near_c_1604562183_fbb638b5_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/5/male_bedspace_dormitory_near_c_1604562183_aabcfa28_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/5/male_bedspace_dormitory_near_c_1604562183_e185bb68_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/5/male_bedspace_dormitory_near_c_1604562184_cfb62ebd_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/5/male_bedspace_dormitory_near_c_1604562184_5dc5c05d_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Female bedspace / bedspace for rent in makati near ayala</t>
+  </si>
+  <si>
+    <t>1 lower slot left ??
+2 upper slots left.??
+Location: Santa Cruz Makati
+??Near RCBC, Fire station and Makati Medical
+??Near Circuit Mall
+??Near Shopwise Makati
+??Near Jp Rizal and Kalayaan
+☑️One ride going Makati Ave. And Ayala. 
+Non AC Room only.
+Inclusions:
+☑️Electricity (Consumable) 
+☑️Water (Consumable) 
+☑️Secured CCTV on hallways. 
+☑️Mattress
+☑️Cabinet
+☑️Common kitchenette with table, chairs and utensils
+☑️Common CR with shower
+☑️Clothes rack and hangers
+☑️Electric fan in kitchen
+☑️Mirror
+☑️Access to Rooftop - sampayan
+??Rules and Regulation implemented for safety. 
+??No curfew
+??Cooking and washing of clothes are allowed 
+??1month advance 1month deposit. 
+??Valid Id required. 
+Other info - Contact: 09496179066 / 09217898483
+Or visit us: 3938 Yague St. Makati city</t>
+  </si>
+  <si>
+    <t>Yague</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/female-bedspace-bedspace-for-rent-in-makati-near-ayala-1056816000/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=prsRcfbmuXzU26mz&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/3/2/female_bedspace__bedspace_for__1614697518_1d289c46_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/17/female_bedspace__bedspace_for__1613567425_1f2089e6_progressive.jpg, https://media.karousell.com/media/photos/products/2020/12/17/female_bedspace__bedspace_for__1608211814_252b8703_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/17/female_bedspace__bedspace_for__1613567425_0df08f89_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/16/female_bedspace__bedspace_for__1610798735_09533f62_progressive.jpg, https://media.karousell.com/media/photos/products/2020/12/17/female_bedspace__bedspace_for__1608211815_3f20a8ae_progressive.jpg, https://media.karousell.com/media/photos/products/2020/12/17/female_bedspace__bedspace_for__1608211815_8cf60915_progressive.jpg, https://media.karousell.com/media/photos/products/2020/12/17/female_bedspace__bedspace_for__1608211815_3ce36946_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/17/female_bedspace__bedspace_for__1613567425_9cd20c67_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/16/female_bedspace__bedspace_for__1610798790_bb4a0ff6_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Male Bedspace QC</t>
+  </si>
+  <si>
+    <t>42 sq m furnished studio shared by 2/3 people. 
+8 min walk to LRT Anonas Station
+exclusive of electricity and water.</t>
+  </si>
+  <si>
+    <t>Ermin Garcia St Cubao</t>
+  </si>
+  <si>
+    <t>Quezon City</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/male-bedspace-qc-1038961813/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=prsRcfbmuXzU26mz&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/10/2/bedspace_qc_1601640834_909d54cb_progressive.jpg, https://media.karousell.com/media/photos/products/2020/10/2/bedspace_qc_1601640834_13ee29bc_progressive.jpg, https://media.karousell.com/media/photos/products/2020/10/2/bedspace_qc_1601640834_8b574db0_progressive.jpg, https://media.karousell.com/media/photos/products/2020/10/2/bedspace_qc_1601640834_ba5ab59e_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Bedspace at Ayala Centera Condominium, EDSA-Mandaluyong. 09085150291.</t>
+  </si>
+  <si>
+    <t>Bedspace at Ayala Centera Condominium, EDSA-Mandaluyong. 
+Free WIFI, monthly association condo dues and water consumption.
+5,200 per month **excluding electricity (Meralco) bill** 
+With TV, aircon, double-deck with foam, table and refrigerator.
+2 out of 4 slots available.</t>
+  </si>
+  <si>
+    <t>Ayala Centera Condominium, EDSA, Mandaluyong</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspace-at-ayala-centera-condominium-edsa-mandaluyong-09085150291-272164765/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=prsRcfbmuXzU26mz&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/01/11/bedspace_at_ayala_centera_condominium_edsamandaluyong_09085150291_1578700587_75e1b113b_progressive</t>
+  </si>
+  <si>
+    <t>LADY BEDSPACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‼️‼️LADY BEDSPACE‼️‼️
+‼️2500 ALL IN‼️ (negotiable)
+1 MONTH ADVANCE AND 1 MONTH DEPOSIT LANG MOVE IN AGAD. ?? 
+?? 2 (TWO) SLOT VACANT (UPPER/LOWER DECK)
+✅ Near Shaw Center Mall
+✅ Near Boni
+✅ Near Starmall Shaw
+✅ Near Shaw 500
+✅NCMH Mental Hospital
+PM ME FOR MORE DETAILS.
+Address: 37B F. Martinez cor Fabella Brgy. Addition Hills Mandaluyong City - Near Mandaluyong City Hall (Landmark: Celltech Phoneshop/J Mart
+P2,500 monthly rent ALL IN meaning electric bill, water and inumin kasma na
+1month Deposit lang lipat agad.
+Hanap po namin ay yung hindi maarte, friendly at marunong makisama.
+✓ Nasa 3rd floor ng Residential House ung kwarto (1 room only maximum of 5 tenants)
+✓ Solo po natin ang buong 3rd floor dalawa ang cr hinde kelangan mag agawan
+✓ No curfew
+✓ Near Palengke (Martinez Market)
+✓ 1ride jeep from MRT Boni
+✓ 2ride jeep/tricycle from Star Mall, MRT Shaw, Libertad &amp; Greenfield
+✓ 1ride tricycle from Shaw Mall </t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/lady-bedspace-1020313568/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=prsRcfbmuXzU26mz&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/7/13/lady_bedspace_1594607690_0583017c_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Bedspacer - UP Campus</t>
+  </si>
+  <si>
+    <t>Room good for (2) two
+Both male/Both female occupant
+Residential Area near UP Town Center and UP technohub
+Inclusive: Electricity, Water and Wifi connection
+look for Gina - 09175142843
+#bedspacer #roomforrent #quezoncity</t>
+  </si>
+  <si>
+    <t>UP Campus</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspacer-up-campus-1030436612/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/8/23/bedspacer__up_campus_1598170528_5a028a12_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/23/bedspacer__up_campus_1598170528_d1432cec_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/23/bedspacer__up_campus_1598170528_d5ede730_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Bedspacer - Single UP Campus</t>
+  </si>
+  <si>
+    <t>Single Room
+Communal Cr
+Inclusive: Electricity, Water and Wifi connection
+Residential Area near UP Town Center
+Look for Gina - 09175142843
+#bedspacer #rent #quezoncity</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspacer-single-up-campus-1030608300/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/8/24/bedspacer__single_up_campus_1598240585_892e4157_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/24/bedspacer__single_up_campus_1598240586_a8a4cad5_progressive.jpg, https://media.karousell.com/media/photos/products/2020/8/24/bedspacer__single_up_campus_1598240586_ab1cadfe_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Pacific Regency Condo Sharing Female Bedspace LRT CSB DLSU St Scho</t>
+  </si>
+  <si>
+    <t>Located in front of Rizal Stadium
+Walking distance to LRT, De La Salle University  Manila, College of Saint Benilde, St. Scholastica's College
+Address: Pacific Regency 760 P. Ocampo St. Malate, Manila
+All In (Inclusive of Association Dues, water &amp; electricity)
+Guaranteed for 4 Female Occupants only
+Available for viewing and occupancy
+Comes with bed, mattresses, cabinets
+with WiFi, Television, microwave &amp; Fan
+Free Use of amenities (swimming pool &amp; gym)
+Convenient stores, laundry shops, and restaurants nearby. 
+1 month advance 1 
+month deposit
+Minimum of  3 months stay 
+Please contact for viewing schedule
+0 9 1 7 5 5 1 9 4 6 5</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/pacific-regency-condo-sharing-female-bedspace-lrt-csb-dlsu-st-scho-238529979/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_65c8041c.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_1311ad60.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_8dba4feb.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_88f62bc9.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_d823e73d.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_453a7311.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_320853a4.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_b1b7014b.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235225_238529979_9dfda54b.jpg</t>
+  </si>
+  <si>
+    <t>Lady bedspacer</t>
+  </si>
+  <si>
+    <t>Lady bedspacer
+may 2k monthly at 2.5k monthly mas maluwag
+water and electricity included na sa monthly
+may wifi na din
+pasay area</t>
+  </si>
+  <si>
+    <t>Pasay City</t>
+  </si>
+  <si>
+    <t>Barangay 106</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/lady-bedspacer-1068485298/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/2/9/lady_bedspacer_1612850650_75c25265_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/9/lady_bedspacer_1612850650_2c7553d5_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/9/lady_bedspacer_1612850650_b84549bb_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/9/lady_bedspacer_1612850650_f742f67c_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/9/lady_bedspacer_1612850650_5a886907_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/9/lady_bedspacer_1612850650_d0fa3401_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/9/lady_bedspacer_1612850651_f443a3d6_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/9/lady_bedspacer_1612850651_95e8f2de_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Female Bedspace Condo sharing Mandaluyong</t>
+  </si>
+  <si>
+    <t>Lower bed available (add 200.00)
+Location: urban deca tower edsa mandaluyong along edsa bet Boni &amp; Shaw Mrt few steps to Greenfield,MRT Station,Starmall,SM Light,Shangrila,Ortigas &amp; SM Megamall
+Good for 4persons
+Inclusions: furnished with new aircon,bed w/foam &amp; bedsheet,cabinet &amp; storage box,ref,microwave,kettle,rice cooker,2seater table,utensils,assoc dues
+Exclusions: water &amp; electricity bill(sharing)
+Requirements: 1mon adv,1mon deposit,2 valid ids</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/female-bedspace-condo-sharing-mandaluyong-261910477/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/11/12/female_bedspace_condo_sharing_mandaluyong_1573522991_e2e21549_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/12/female_bedspace_condo_sharing_mandaluyong_1573522991_4874b97c_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/12/female_bedspace_condo_sharing_mandaluyong_1573522991_cad42850_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/12/female_bedspace_condo_sharing_mandaluyong_1573522991_9aeea162_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/12/female_bedspace_condo_sharing_mandaluyong_1573522991_273f97cc_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/12/female_bedspace_condo_sharing_mandaluyong_1573522992_8c9bf926_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/12/female_bedspace_condo_sharing_mandaluyong_1573522992_4d7cfb8f_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/12/female_bedspace_condo_sharing_mandaluyong_1573522992_30a9fda5_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/12/female_bedspace_condo_sharing_mandaluyong_1573522992_522f69d4_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Female Bedspace in Pasay City</t>
+  </si>
+  <si>
+    <t>Female Bedspace for rent RCD Pasay Townhouse Cabrera Street Pasay walking distance to Edsa
+Female Bedspace 
+- 3,000.00 inclusive water &amp; meralco.
+- Additional 100.00 per appliances
+1 months deposit, 1 month advance</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/female-bedspace-in-pasay-city-1020407794/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/03/10/female_bedspace_in_pasay_city_1615362502_12e0c880e_progressive, https://media.karousell.com/media/photos/products/2021/03/10/female_bedspace_in_pasay_city_1615362502_2b32913fe_progressive, https://media.karousell.com/media/photos/products/2021/03/10/female_bedspace_in_pasay_city_1615362502_b98d028be_progressive, https://media.karousell.com/media/photos/products/2021/03/10/female_bedspace_in_pasay_city_1615362502_262b384ee_progressive, https://media.karousell.com/media/photos/products/2021/03/10/female_bedspace_in_pasay_city_1615362502_2ed4fcd4e_progressive, https://media.karousell.com/media/photos/products/2021/03/10/female_bedspace_in_pasay_city_1615362503_a3824008e_progressive</t>
+  </si>
+  <si>
+    <t>FEMALE BEDSPACE FOR RENT 8 Beds in 1 Bedroom)</t>
+  </si>
+  <si>
+    <t>Looking for: Female occupants (Bedspace)
+?? your BED in the heart of the METRO ??
+Located at ?? #55 14th ave. Brgy. Socorro, Murphy Cubao, Quezon City.
+Inclusions:
+??Water
+??Electricity
+✔️24/7 Security and CCTV
+✔️Double deck frames
+✔️Mattress
+✔️Aircon
+?? Walking distance to :
+Laundry shops , Murphy Market , 711 , Church , Joeys grill , Cafe MARIA Jerica and other 24 hr food outlets...
+?? (Tricycle) One ride to:
+MRT - Cubao station , Alimall , SM Cubao, Araneta Coliseum , Robinson Supermarket , Banks , Mini Stop , Villarosa Hospital
+?? PM me for inquiries and viewing or ??
+??0920-9131-640
+0966-983-4685</t>
+  </si>
+  <si>
+    <t>#55 14th Avenue Cubao Quezo City</t>
+  </si>
+  <si>
+    <t>Socorro</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/female-bedspace-for-rent-8-beds-in-1-bedroom-1069604120/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/2/15/female_bed_space_for_rent_8_be_1613387698_dd6a0584_progressive, https://media.karousell.com/media/photos/products/2021/2/15/female_bed_space_for_rent_8_be_1613387698_dd6ed358_progressive, https://media.karousell.com/media/photos/products/2021/2/15/female_bed_space_for_rent_8_be_1613387698_12172d29_progressive, https://media.karousell.com/media/photos/products/2021/2/15/female_bed_space_for_rent_8_be_1613387699_affc8555_progressive, https://media.karousell.com/media/photos/products/2021/2/15/female_bed_space_for_rent_8_be_1613387699_e31e5748_progressive, https://media.karousell.com/media/photos/products/2021/2/15/female_bed_space_for_rent_8_be_1613387699_53508e87_progressive</t>
+  </si>
+  <si>
+    <t>FEMALE BEDSPACE</t>
+  </si>
+  <si>
+    <t>Looking for Female Occupants (Bedspace)
+Your Bed in the heart of Metro
+located at #55  14th Avenue Cubao Quezon City
+Inclusions:
+??Water
+??Electricity
+✔️24/7 Security and CCTV
+✔️Double deck frames
+✔️Mattress
+✔️Aircon
+?? Walking distance to :
+Laundry shops , Murphy Market , 711 , Church , Joeys grill , Cafe MARIA Jerica and other 24 hr food outlets...
+?? (Tricycle) One ride to:
+MRT - Cubao station , Alimall , SM Cubao, Araneta Coliseum , Robinson Supermarket , Banks , Mini Stop , Villarosa Hospital
+?? PM me for inquiries and viewing or ??
+09669834685
+09209131640
+P3500 a month</t>
+  </si>
+  <si>
+    <t>14th Avenue</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/female-bedspace-1069602983/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/2/15/female_bedspace_1613387331_ad8a5d82_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/15/female_bedspace_1613387331_114ee34f_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/15/female_bedspace_1613387331_b302ea60_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/15/female_bedspace_1613387331_2348a61c_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Female bedspacers</t>
+  </si>
+  <si>
+    <t>Looking for female bed spacers. 
+Fresh Condo unit
+Location: Urban Deca Homes Tondo (Vitas)
+Accessible/Near to:
+?? Public transportation
+?? Food panda and grab food
+?? Deca Mall and Hypermarket
+?? Puregold Tayuman
+?? Tondo Medical
+?? Tayuman LRT Station
+?? Divisoria
+?? Lucky China Town Mall
+?? Tutuban
+?? SM San Lazaro
+?? Metropolitan Medical Center
+?? FEU
+?? UE 
+?? UST
+?? Lyceum
+?? Letran
+?? Quiapo Church
+?? Lawton
+?? Intramuros
+?? PRC
+PM for details</t>
+  </si>
+  <si>
+    <t>Tondo - Barangay 1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/female-bedspacers-1061752234/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252502_9c28bf02_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252502_6088e706_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252502_19b0566c_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252503_e7277514_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252503_05b7d7ef_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252503_c88bd39c_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252503_e9c84e7b_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/female_bedspacers_1610252503_6eccb053_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Lf working female bedspacer</t>
+  </si>
+  <si>
+    <t>Viewing anytime. 
+LF: Working female bedspacer
+Location: Cembo, Makati
+‼️Only 1 upper bunk left ‼️
+?? Accessible to most places.
+?? Minimum 6 months 
+Inclusions:
+✅Electric bill
+✅Water bill
+✅ New Aircon (10hrs a day)
+✅Ceiling fan
+✅Bunkbed
+✅New Mattress and pillow
+✅Cabinet 
+✅Secured gate
+✅ 24 hour cctv operated
+‼️Nasa may main road ang bahay(along kalayaan ave.)
+‼️10mins walk to BGC
+‼️1 ride to Market!Market!/ SM Aura
+‼️1 ride to Ayala
+‼️1 ride to Rockwell
+‼️1 ride to Pasig
+‼️1 ride to Antipolo
+‼️1 ride to Taytay
+‼️1 ride to Cainta
+‼️2 rides to mandaluyong
+‼️2 rides to ortigas
+Pm me for more details.</t>
+  </si>
+  <si>
+    <t>Cembo</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/lf-working-female-bedspacer-1068424763/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/2/8/lf_working_female_bedspacer_1612824673_aeed591d_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/8/lf_working_female_bedspacer_1612824673_d37a0253_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/8/lf_working_female_bedspacer_1612824674_f72d00d6_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/8/lf_working_female_bedspacer_1612824674_8607789f_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/8/lf_working_female_bedspacer_1612824674_9a8c61fa_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/8/lf_working_female_bedspacer_1612824674_7257e873_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/8/lf_working_female_bedspacer_1612824674_eca32e1e_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/8/lf_working_female_bedspacer_1612824674_992887de_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/8/lf_working_female_bedspacer_1612824675_b1489ac5_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/8/lf_working_female_bedspacer_1612824675_6deb3f68_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Female Bedspace for Rent - Unit 1630 at Studio Zen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female Bedspace for Rent - Unit 1630 at Studio Zen 
+((3 Slots (1 lower deck bed &amp; 2 upper deck beds) Available))
+1811 Taft Avenue, Barangay San Isidro, Pasay City
+Rent: P5000/month per person
+Studio Unit. Floor Area: 18.43 sqm. Fully furnished with free WiFi, telephone, dining utensils, kitchen utensils, cabinets
+All photos posted and video in this link is the is the actual unit: </t>
+  </si>
+  <si>
+    <t>1811 Taft Avenue, Barangay San Isidro, Pasay City</t>
+  </si>
+  <si>
+    <t>Barangay 115</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/female-bedspace-for-rent-unit-1630-at-studio-zen-1069291732/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/2/13/female_bedspace_for_rent__unit_1613225962_7fa55715_progressive, https://media.karousell.com/media/photos/products/2021/2/13/female_bedspace_for_rent__unit_1613225962_bcc1a548_progressive, https://media.karousell.com/media/photos/products/2021/2/13/female_bedspace_for_rent__unit_1613225963_97755334_progressive, https://media.karousell.com/media/photos/products/2021/2/13/female_bedspace_for_rent__unit_1613225963_228b2808_progressive, https://media.karousell.com/media/photos/products/2021/2/13/female_bedspace_for_rent__unit_1613225963_47a84429_progressive, https://media.karousell.com/media/photos/products/2021/2/13/female_bedspace_for_rent__unit_1613225963_c3436a3b_progressive, https://media.karousell.com/media/photos/products/2021/2/13/female_bedspace_for_rent__unit_1613225963_5dacbcb2_progressive, https://media.karousell.com/media/photos/products/2021/2/13/female_bedspace_for_rent__unit_1613225963_193dfbce_progressive, https://media.karousell.com/media/photos/products/2021/2/13/female_bedspace_for_rent__unit_1613225964_9462b543_progressive, https://media.karousell.com/media/photos/products/2021/2/13/female_bedspace_for_rent__unit_1613225964_af1d65d3_progressive</t>
+  </si>
+  <si>
+    <t>Female Bedspace Makati</t>
+  </si>
+  <si>
+    <t>2861 E. Zobel St., cor JP Rizal Ave., Poblacion, Makati City
+Walking distance to Makati Ave., Century City Mall, A.Venue Mall, Antel Towers Gramercy Residence, MIlano Residences, Knightbridge Residences accessible to Ayala, Rockwell, Gil Puyat Ave., Ayala Center, Greenbelt, Mapua Mkt.,Salcedo Vill. Paseo DeRoxas CEU. 
+Room for 2 pax  Php. 3,000/ head , Room for 6 pax air condition (metered)  Php.3,000/ head  Room for 4 pax air condition (metered) Php. 3000/head and 10 pax Php. 2.800/ head
+-1mos. adv./ 1mos dep. /6mos contract 
+- 3 C.R. 3 Shower Rooms 
+-Electricity and Water 
+-Free Wifi
+-Laundry/Ironing is ALLOWED.
+-With CCTV 24/7
+-Cooking not allowed</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/female-bedspace-makati-238535898/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2019/07/11/235441_238535898_caa3c781.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235441_238535898_f3f0203a.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235441_238535898_0fc039f0.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235441_238535898_2a4d7a41.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235441_238535898_e05b66ce.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235441_238535898_3f35c975.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235441_238535898_213717d2.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235441_238535898_b5a2d72a.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235441_238535898_de7413ce.jpg, https://media.karousell.com/media/photos/products/2019/07/11/235441_238535898_d36862a8.jpg</t>
+  </si>
+  <si>
+    <t>BEDSPACE IN BGC</t>
+  </si>
+  <si>
+    <t>Bedspace for Ladies only ??????
+Each room has a capacity of 3-4 people with own cr.
+Monthly rate 4,900 per head,inclusive of wifi and water (excluding electricity). The house is inside an Exclusive gated village along Kalayaan Ave.Ext. infront of Philplans Corp.BGC,
+with cctv’s and guard assigned.
+The Village is few blocks from Uptown Mall (5-10 mins walk)
+Terms of Payment
+- 1month deposit
+- 1 month advance
+- 6 months contract
+Others
+????‍♀️wifi
+????‍♀️cook
+????‍♀️laundry
+????‍♀️with aircon
+????‍♀️free use of gym equipents</t>
+  </si>
+  <si>
+    <t>Villa Kalayaan Village</t>
+  </si>
+  <si>
+    <t>Taguig</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspace-in-bgc-1020738189/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/7/14/bedspace_in_bgc_1594737067_fd934c42_progressive.jpg, https://media.karousell.com/media/photos/products/2020/7/14/bedspace_in_bgc_1594737067_49d1c7b4_progressive.jpg, https://media.karousell.com/media/photos/products/2020/7/14/bedspace_in_bgc_1594737067_db890bc8_progressive.jpg, https://media.karousell.com/media/photos/products/2020/7/14/bedspace_in_bgc_1594737067_48767388_progressive.jpg, https://media.karousell.com/media/photos/products/2020/7/14/bedspace_in_bgc_1594737067_26886f9b_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Male Bedspace at GA Tower 2</t>
+  </si>
+  <si>
+    <t>Bedspace in a room for 4 pax
+2 Toilets
+Room is furnished with metal lockers, 2 lockers per tenant. It has sub-metered AC, beds are fixed on the wall, no chance of moving while sleeping. Provided with 3.5 inches uratex foam.
+Kitchen is furnished with dining set, electric stove, ref, microwave &amp; pantry per tennant.
+Living room is furnished with TV with cable, sofa set &amp; shoe rack.
+Separate Dues &amp; utilites.</t>
+  </si>
+  <si>
+    <t>Malamig</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/male-bedspace-at-ga-tower-2-1068748986/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/2/10/male_bedspace_at_ga_tower_2_1612954726_408ac463_progressive, https://media.karousell.com/media/photos/products/2021/2/10/male_bedspace_at_ga_tower_2_1612954726_40c41536_progressive, https://media.karousell.com/media/photos/products/2021/2/10/male_bedspace_at_ga_tower_2_1612954727_8c42e3bd_progressive, https://media.karousell.com/media/photos/products/2021/2/10/male_bedspace_at_ga_tower_2_1612954727_e8074e53_progressive, https://media.karousell.com/media/photos/products/2021/2/10/male_bedspace_at_ga_tower_2_1612954727_2be598e1_progressive, https://media.karousell.com/media/photos/products/2021/2/10/male_bedspace_at_ga_tower_2_1612954727_ebcf48f2_progressive</t>
+  </si>
+  <si>
+    <t>Male Bedspace in Makati and Ayala</t>
+  </si>
+  <si>
+    <t>Male Bedspace in Makati and Ayala
+Price Starts at P3000-7000
+Features:
+*All in with water, electricity, WIFI and cable
+*Price varies depending on condo and room type
+*Weekly house keeping
+*Gated, with guards and/or with CCTV
+*With locker/cabinet
+*Friendly admins
+*Option for aircon
+*Covid-free
+Units are near the following landmarks:
+Glorietta 4
+LRT Gil Puyat
+Cash and Carry
+Walter Mart
+Export Bank
+RCBC Plaza
+Requirements:
+1) Photocopy of valid IDs
+2) One month advance and one month deposit
+Reserve now to ensure slot during GCQ. Our units are COVID free due to cooperation of our residents to our barangay and LGU. We practice social distancing. For unit visits, please ensure that you have quarantine permit, mask and/or face shield. Before entering our unit, kindly allow us to check your temperature for Covid-free environment.
+#Bedspace #Dormitory #Roomsharing #Condosharing #Apartment #MaleBedspace
+Contacts:
+09770090167
+09770090141
+09069125200
+09956394735</t>
+  </si>
+  <si>
+    <t>Makati and Ayala</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/male-bedspace-in-makati-and-ayala-1017097696/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_makati_and_ay_1593440671_79c96340_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_makati_and_ay_1593440672_97eec6c9_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_makati_and_ay_1593440672_ede14192_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_makati_and_ay_1593440672_07ff2851_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_makati_and_ay_1593440672_43f22d8e_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_makati_and_ay_1593440672_0c01ad9c_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_makati_and_ay_1593440672_ba1f8a63_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_makati_and_ay_1593440672_87ca8737_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_makati_and_ay_1593440672_b65135c1_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_makati_and_ay_1593440672_69ff7625_progressive</t>
+  </si>
+  <si>
+    <t>Male Bedspace in Pasay near Mall of Asia</t>
+  </si>
+  <si>
+    <t>Male Bedspace in Pasay near in Mall of Asia
+Price Starts at P3100
+Features:
+*All in with water, electricity, WIFI and cable
+*Weekly house keeping
+*Gated, with guards and/or with CCTV
+*With locker/cabinet
+*Friendly admins
+*Covid-free
+Units are near the following landmarks:
+SM Mall of Asia
+Asiana
+Solaire
+Magallanes Alphaland
+Resorts World
+City of Dreams
+Baclaran Church
+Airport
+Requirements:
+1) Photocopy of valid IDs
+2) One month advance and one month deposit
+Reserve now to ensure slot during GCQ. Our units are COVID free due to cooperation of our residents to our barangay and LGU. We practice social distancing. For unit visits, please ensure that you have quarantine permit, mask and/or face shield. Before entering our unit, kindly allow us to check your temperature for Covid-free environment.
+#Bedspace #Dormitory #Roomsharing #Condosharing #Apartment #MaleBedspace
+Contacts:
+09770090167
+09770090141
+09069125200
+09956394735</t>
+  </si>
+  <si>
+    <t>Vergel St., Pasay City</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/male-bedspace-in-pasay-near-mall-of-asia-1017088389/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_pasay_near_ma_1593438459_7b799392_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_pasay_near_ma_1593438459_182420e3_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_pasay_near_ma_1593438459_49b2ccc7_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_pasay_near_ma_1593438459_b49e56e4_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_pasay_near_ma_1593438459_1baffdba_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_pasay_near_ma_1593438459_31e426df_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_pasay_near_ma_1593438459_df48ebf8_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_pasay_near_ma_1593438459_bdbba597_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_pasay_near_ma_1593438459_e0ca6eaa_progressive, https://media.karousell.com/media/photos/products/2020/6/29/male_bedspace_in_pasay_near_ma_1593438460_c7821643_progressive</t>
+  </si>
+  <si>
+    <t>Bedspace for Girl only</t>
+  </si>
+  <si>
+    <t>BEDSPACE FOR GIRLS  in the most safest place in manila Area, Bagong lipunan ng Crame quezon City.
+RENT PER MONTH:
+4,500 lower deck
+4000 upper deck
+ except water and electricity bill..
+WITH 24 HOURS SECURITY....
+TERMS:
+one month advance and 2months deposit
+with 1 year minimum contract.
+Free use of:
+3 in 1 washing machine
+Windows type aircon
+Mini refrigerator
+Flat screen led TV
+Induction cooker 
+Condominium amenities(Swimming pool and  exercise area)
+For inquiry please contact 09310055336
+Requirements:
+NBI
+1 Government ID
+If student: student ID with NBI
+If working: company ID with NBI</t>
+  </si>
+  <si>
+    <t>Avida Tower New Manila</t>
+  </si>
+  <si>
+    <t>Bagong Lipunan Ng Crame</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspace-for-girl-only-1062181534/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/1/12/bedspace_for_girl_only_1610424932_431ba189_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Bedspace/Room for Rent (GA Tower 2)</t>
+  </si>
+  <si>
+    <t>Bedspace/Room for Rent (Condo-Sharing) Male only
+4k-8k/month
+Fully furnished
+Amenities:
+Fitness Gym
+Swimming pool</t>
+  </si>
+  <si>
+    <t>For Inquiry: 09953645461/09474264138</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspace-room-for-rent-ga-tower-2-1061765445/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=oE8zvs0gBqXMEJca&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/1/10/room_for_rent_ga_tower_2_1610256208_32f06a82_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/room_for_rent_ga_tower_2_1610256208_81d8b6df_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/7/room_for_rent_ga_tower_2_1612717999_bc20ee44_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/room_for_rent_ga_tower_2_1610256208_94867451_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/10/room_for_rent_ga_tower_2_1610256208_3272f220_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/31/room_for_rent_ga_tower_2_1612119424_52ef6942_progressive.jpg, https://media.karousell.com/media/photos/products/2021/1/31/room_for_rent_ga_tower_2_1612119424_33a5e731_progressive.jpg</t>
+  </si>
+  <si>
+    <t>SM Jazz Bedspace P5,000++ per month</t>
+  </si>
+  <si>
+    <t>Looking for one (1) male room mate ??
+1 bedroom unit in SM Jazz Residences, Makati
+P5,000++ monthly rental
+With unlimited use of amenities including:
+50mbps Fibr Wifi
+Shower with Water Heater
+TV with Chromecast
+Swimming Pool
+Gym
+Lobby Lounge 
+Refrigerator
+Induction Cooker
++ Easy access to SM Jazz Mall below the condo
+Please contact me at 09274982627 for more details ??
+Rent Details:
+- Unit rent will be P5,000 per month excluding utility fees which will be shared by all tenants including myself
+- Needed security requirements: Company ID / School ID / Passport and NBI Clearance
+- Contract Requirement: 6 months (can be negotiable)
+- Covid-19 PCR / Rapid Test
+- 1 month advance, 1 month security deposit needed</t>
+  </si>
+  <si>
+    <t>SM Jazz Residences Tower B Nicanor Garcia St., Corner Jupiter St. Makati</t>
+  </si>
+  <si>
+    <t>Bel-air</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/sm-jazz-bedspace-p5-000-per-month-1046126238/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=UM6YSHjCCkV9X7kc&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/11/1/sm_jazz_bedspace_p5000_per_mon_1604237886_dabc20fc_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/1/sm_jazz_bedspace_p5000_per_mon_1604237886_200c6d99_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/1/sm_jazz_bedspace_p5000_per_mon_1604237886_73aed3bd_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/1/sm_jazz_bedspace_p5000_per_mon_1604237886_08fbee3d_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/1/sm_jazz_bedspace_p5000_per_mon_1604237886_f06515ca_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/1/sm_jazz_bedspace_p5000_per_mon_1604237886_07c06607_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/1/sm_jazz_bedspace_p5000_per_mon_1604237887_bcfdaca2_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/1/sm_jazz_bedspace_p5000_per_mon_1604237887_e053e8d6_progressive.jpg, https://media.karousell.com/media/photos/products/2020/11/1/sm_jazz_bedspace_p5000_per_mon_1604237887_c9682e68_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Bedspace for rent Fame Residences Condominium</t>
+  </si>
+  <si>
+    <t>❗Looking for female bedspacers
+??5,000 per head. 
+?? fully furnished
+?? WiFi, water and electricity not included.
+??6 months to 1 year contract
+??1 month advance and 1 month security deposit. 
+Kindly sms me for faster transaction. 
+Thanks for viewing!</t>
+  </si>
+  <si>
+    <t>EDSA Shaw Boulevard Mayflower Street, Brgy. Highway Hills, Mandaluyong City</t>
+  </si>
+  <si>
+    <t>24.05</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/bedspace-for-rent-fame-residences-condominium-1039259702/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=UM6YSHjCCkV9X7kc&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/3/2/bedspace_for_rent_fame_residen_1614691605_13b200d0_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/9/bedspace_for_rent_fame_residen_1612877912_121cd611_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/9/bedspace_for_rent_fame_residen_1612877912_1d30c5dc_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/9/bedspace_for_rent_fame_residen_1612877913_0ab0f764_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/9/bedspace_for_rent_fame_residen_1612878021_55e05545_progressive.jpg, https://media.karousell.com/media/photos/products/2021/2/9/bedspace_for_rent_fame_residen_1612878021_9a0e5c9b_progressive.jpg</t>
+  </si>
+  <si>
+    <t>Male Bedspace Ortigas with Wifi</t>
+  </si>
+  <si>
+    <t>MALE BEDSPACE IN ORTIGAS FREE WIFI
+09154735238
+09154735238
+Up and down apartment type.
+First floor: salas dining kitchen laundry area and cr.
+2nd floor: two rooms. Each has 6 young male professional spacee.
+1 month advance 1 month deposit
+1K Gen. Atienza St. in front of The Link Centre Bldg inside san antonio village ortigas
+3500 All in!
+3500 All in!
+3500 All in!
+Its ironically located in the heart of Ortigas CBD.
+Near:
+Sm Megamall
+Shangrila Mall
+PSE
+Capitol Commons
+Churches
+TOP Multi-Corporation Buildings inside Ortigas CBD.
+Tiendesitas
+The Medical City Ortigas
+DRUGSTORES
+HARDWARE
+CONVINIENCE STORES
+VERY ACCESIBLE.
+Kindly check our dorm personally para mas maappreciate. Libre lahat
+Wifi
+Ilaw
+Tubig
+Magluto
+Maglaba
+Fully furnished:
+Salas with 40 inch flat tv
+Dining table 4 seater
+Refrigerator
+Ironing materials
+All your roomates are very professionals (I.T. Eng. CPA, etc.)
+09154735238</t>
+  </si>
+  <si>
+    <t>1K Gen. Atienza St. Brgy. San Antonio Pasig City</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/male-bedspace-ortigas-with-wifi-1068518652/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=UM6YSHjCCkV9X7kc&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/2/9/male_bedspace_ortigas_with_wif_1612860105_49ea3908_progressive, https://media.karousell.com/media/photos/products/2021/2/9/male_bedspace_ortigas_with_wif_1612860105_88b177e4_progressive, https://media.karousell.com/media/photos/products/2021/2/9/male_bedspace_ortigas_with_wif_1612860105_ef077c76_progressive, https://media.karousell.com/media/photos/products/2021/2/9/male_bedspace_ortigas_with_wif_1612860106_cf699397_progressive, https://media.karousell.com/media/photos/products/2021/2/9/male_bedspace_ortigas_with_wif_1612860106_637509f9_progressive, https://media.karousell.com/media/photos/products/2021/2/9/male_bedspace_ortigas_with_wif_1612860106_c0cd18d3_progressive, https://media.karousell.com/media/photos/products/2021/2/9/male_bedspace_ortigas_with_wif_1612860106_5ac9da32_progressive, https://media.karousell.com/media/photos/products/2021/2/9/male_bedspace_ortigas_with_wif_1612860106_1b40a9ac_progressive</t>
+  </si>
+  <si>
+    <t>Condo Sharing Bedspace for Female near Boni and Shaw MRT Aircon wifi n</t>
+  </si>
+  <si>
+    <t>Condo Sharing Bedspace for Female near Boni and Shaw MRT Aircon with wifi netflix water heater 
+Only 3 pax in the room 
+Single Bed
+Aircon with wifi and Netflix 
+Can do light laundry 
+With water heater 
+1 trike from Boni / Shaw MRT Station 
+Near Kapitolyo, SM Light, and Robinsons Forum 
+Clean and quiet..not crowded 
+See to appreciate 
+Call or contact us for immediate concern</t>
+  </si>
+  <si>
+    <t>Pioneer St., Mandaluyong , Pioneer</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/condo-sharing-bedspace-for-female-near-boni-and-shaw-mrt-aircon-wifi-n-274471537/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=UM6YSHjCCkV9X7kc&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2021/01/01/condo_sharing_bedspace_for_female_near_boni_and_shaw_mrt_aircon_wifi_n_1609500373_e008d49ee_progressive, https://media.karousell.com/media/photos/products/2021/01/01/condo_sharing_bedspace_for_female_near_boni_and_shaw_mrt_aircon_wifi_n_1609500374_624dc678e_progressive</t>
+  </si>
+  <si>
+    <t>For Lease: Bedspace/Dorm in Manila, Makati, and Taguig area</t>
+  </si>
+  <si>
+    <t>Available Inventory:
+1. Solo Rooms - P1,250/room per day
+2. Dorm Type Rooms - P400/bed per day
+*Open for short-term lease (15 days and up)</t>
+  </si>
+  <si>
+    <t>Manila NCR, Manila</t>
+  </si>
+  <si>
+    <t>https://www.carousell.ph/p/for-lease-bedspace-dorm-in-manila-makati-and-taguig-area-285938748/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=UM6YSHjCCkV9X7kc&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2020/12/29/_for_lease_bedspacedorm_in_manila_makati_and_taguig_area_1609232736_096d57ede_progressive, https://media.karousell.com/media/photos/products/2020/12/29/_for_lease_bedspacedorm_in_manila_makati_and_taguig_area_1609232736_31b2f961e_progressive, https://media.karousell.com/media/photos/products/2020/12/29/_for_lease_bedspacedorm_in_manila_makati_and_taguig_area_1609232736_5b44acb3e_progressive, https://media.karousell.com/media/photos/products/2020/12/29/_for_lease_bedspacedorm_in_manila_makati_and_taguig_area_1609232736_bc43cdb7e_progressive, https://media.karousell.com/media/photos/products/2020/12/29/_for_lease_bedspacedorm_in_manila_makati_and_taguig_area_1609232737_ca9cf061e_progressive, https://media.karousell.com/media/photos/products/2020/12/29/_for_lease_bedspacedorm_in_manila_makati_and_taguig_area_1609232737_21786a3ce_progressive</t>
   </si>
   <si>
     <t>Bedspace for Rent - Ladies</t>
@@ -147,56 +1261,16 @@
 Message us for more details.</t>
   </si>
   <si>
-    <t>https://www.carousell.ph/p/bedspace-for-rent-ladies-239185562/?t-id=7cWTSNfYfn_1613983964416&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=cpgHOfjJVmso6zHL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+    <t>https://www.carousell.ph/p/bedspace-for-rent-ladies-239185562/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=UM6YSHjCCkV9X7kc&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
   </si>
   <si>
     <t>https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_d52b1828_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_48af0582_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_3aec2437_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_b68230bc_progressive.jpg, https://media.karousell.com/media/photos/products/2019/11/23/bedspace_for_rent__ladies_1574473718_33535da3_progressive.jpg</t>
   </si>
   <si>
-    <t>Bedspace For Male Mandaluyong</t>
-  </si>
-  <si>
-    <t>Rm Solo/Shared 
-Initial Paymt: 4-Gives or P500 ONLY
-Monthly Rent: 2-Gives
-Looking For: Male Young Professionals (Decent)
-Age: 20-45
-Reqs.: (ID Pix, Co. ID, Any Gov't ID, NBI Clearance) 
-Various Perks and Privileges: 
-1. The whole townhouse unit is usable, with ac, fully furnished 
-2. No Curfew, gate/Rm keys provided 
-3. 24-hours water supply &amp; transportation
-4. Housekeeper's Provided
-5. Free Pick-up and Delivery of Laundry Services 
-6. Group WIFI access 
-7. Free Parking space 
-8. Accessible to all primary needs
-9. Events &amp; Activities 
-10.Various Discounts 
-For more details, u may text me at 0917-5113088. U may visit d place 2 appreciate &amp; we will discuss all the perks and privileges. - MARC</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/bedspace-for-male-mandaluyong-238486060/?t-id=7cWTSNfYfn_1613983964416&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=cpgHOfjJVmso6zHL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
-  </si>
-  <si>
-    <t>https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_b00edfa7.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_719e1e68.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_32f21557.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_d1d2e999.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_1f516216.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_e85abcd2.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_94745904.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_89f02bb9.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_fa0dfc30.jpg, https://media.karousell.com/media/photos/products/2019/07/11/230654_238486060_9c7c6ccf.jpg</t>
-  </si>
-  <si>
     <t>Moonwalk Paranaque Bedspace for rent</t>
   </si>
   <si>
-    <t>*Prices is per head
-*Free water and electric 
-(Shower and Fan only *NO LAUNDRY ALLOWED)
-*Near Mcdo Moonwalk
-*Near 7-11 &amp; other 24/hrs convenient store
-*Near BDO 
-*Near SM Sucat and Bicutan
-*ONLY 2 person in each room
-*We also accept short term/transient (please call/txt for inquiry)</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/moonwalk-paranaque-bedspace-for-rent-243185456/?t-id=7cWTSNfYfn_1613983964416&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=cpgHOfjJVmso6zHL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+    <t>https://www.carousell.ph/p/moonwalk-paranaque-bedspace-for-rent-243185456/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=UM6YSHjCCkV9X7kc&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
   </si>
   <si>
     <t>https://media.karousell.com/media/photos/products/2019/08/01/153441_243185456_d560711a.jpg, https://media.karousell.com/media/photos/products/2019/08/01/153441_243185456_452021d1.jpg, https://media.karousell.com/media/photos/products/2019/08/01/153441_243185456_f52bbf05.jpg</t>
@@ -205,18 +1279,7 @@
     <t>Condo Sharing Bedspace</t>
   </si>
   <si>
-    <t>4,500php per month. All in kasama na tubig at kuryente, Aircon room, wifi and own CR wala ng ibang babayaran provided na din ung bed at ibang gamit, kahit damit nalang dalhin mo. 
-Sa second floor po ung room, 
-Downstairs naman ung kitchen, w/ refrigerator,microwave, rice cooker &amp; electric kettle.
-Free use of pool, gym and other facilities.
-Bedspace po ito. For FEMALE ONLY!!
-Location: Gateway Garden heights sa tabi lang Ng Robinson's forum kaya marami Ka mabibilhan Ng pagkaen. Malapit din sa lahat Ng sakayan kaya wala Ng masyadong lakad.
-Para sa mga interesado paki message nalang ako sa FB account ko... 
-Lanzce Descartin
-Thanks, God bless.</t>
-  </si>
-  <si>
-    <t>https://www.carousell.ph/p/condo-sharing-bedspace-243190069/?t-id=7cWTSNfYfn_1613983964416&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=cpgHOfjJVmso6zHL&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
+    <t>https://www.carousell.ph/p/condo-sharing-bedspace-243190069/?t-id=Z7-f89FC7O_1615374952861&amp;t-referrer_browse_type=search_results&amp;t-referrer_request_id=UM6YSHjCCkV9X7kc&amp;t-referrer_search_query=bedspace&amp;t-referrer_sort_by=popular</t>
   </si>
   <si>
     <t>https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_2e685974.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_1f4881f0.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_ad3dab89.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_bff34032.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_04030b0e.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_b914c72a.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_5bb01004.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_f49243a7.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_b750303f.jpg, https://media.karousell.com/media/photos/products/2019/08/01/155610_243190069_035f34e7.jpg</t>
@@ -325,7 +1388,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>5000.0</v>
+        <v>3500.0</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -340,31 +1403,31 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
         <v>19</v>
@@ -372,16 +1435,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>4000.0</v>
+        <v>3500.0</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -390,31 +1453,31 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
         <v>19</v>
@@ -422,16 +1485,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>4500.0</v>
+        <v>3400.0</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -440,31 +1503,31 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
         <v>19</v>
@@ -472,13 +1535,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>2500.0</v>
+        <v>5500.0</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -490,31 +1553,31 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
         <v>19</v>
@@ -522,16 +1585,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B6" t="n">
-        <v>3000.0</v>
+        <v>2500.0</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -540,16 +1603,16 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -561,24 +1624,24 @@
         <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B7" t="n">
-        <v>2700.0</v>
+        <v>2200.0</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -590,10 +1653,10 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -611,10 +1674,10 @@
         <v>19</v>
       </c>
       <c r="N7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
         <v>19</v>
@@ -622,51 +1685,1751 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B8" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2800.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2800.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3400.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5200.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3500.0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O19" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" t="s">
+        <v>119</v>
+      </c>
+      <c r="O20" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3500.0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" t="s">
+        <v>129</v>
+      </c>
+      <c r="O22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3500.0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" t="s">
+        <v>134</v>
+      </c>
+      <c r="J23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3500.0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" t="s">
+        <v>147</v>
+      </c>
+      <c r="O25" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" t="s">
+        <v>153</v>
+      </c>
+      <c r="O26" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" t="s">
+        <v>159</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" t="s">
+        <v>160</v>
+      </c>
+      <c r="O27" t="s">
+        <v>161</v>
+      </c>
+      <c r="P27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2800.0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" t="s">
+        <v>165</v>
+      </c>
+      <c r="O28" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" t="n">
         <v>4500.0</v>
       </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="C29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" t="s">
+        <v>171</v>
+      </c>
+      <c r="O29" t="s">
+        <v>172</v>
+      </c>
+      <c r="P29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3250.0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>175</v>
+      </c>
+      <c r="J30" t="s">
+        <v>176</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" t="s">
+        <v>177</v>
+      </c>
+      <c r="O30" t="s">
+        <v>178</v>
+      </c>
+      <c r="P30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" t="s">
+        <v>182</v>
+      </c>
+      <c r="O31" t="s">
+        <v>183</v>
+      </c>
+      <c r="P31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3400.0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" t="s">
+        <v>81</v>
+      </c>
+      <c r="M32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" t="s">
+        <v>187</v>
+      </c>
+      <c r="O32" t="s">
+        <v>188</v>
+      </c>
+      <c r="P32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" t="s">
+        <v>192</v>
+      </c>
+      <c r="J33" t="s">
+        <v>135</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" t="s">
+        <v>81</v>
+      </c>
+      <c r="M33" t="s">
+        <v>43</v>
+      </c>
+      <c r="N33" t="s">
+        <v>193</v>
+      </c>
+      <c r="O33" t="s">
+        <v>194</v>
+      </c>
+      <c r="P33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s">
+        <v>175</v>
+      </c>
+      <c r="J34" t="s">
+        <v>164</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" t="s">
+        <v>198</v>
+      </c>
+      <c r="O34" t="s">
+        <v>199</v>
+      </c>
+      <c r="P34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>203</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" t="s">
+        <v>204</v>
+      </c>
+      <c r="O35" t="s">
+        <v>205</v>
+      </c>
+      <c r="P35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s">
+        <v>209</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36" t="s">
+        <v>43</v>
+      </c>
+      <c r="N36" t="s">
+        <v>210</v>
+      </c>
+      <c r="O36" t="s">
+        <v>211</v>
+      </c>
+      <c r="P36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3500.0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s">
+        <v>215</v>
+      </c>
+      <c r="J37" t="s">
+        <v>216</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" t="s">
+        <v>217</v>
+      </c>
+      <c r="O37" t="s">
+        <v>218</v>
+      </c>
+      <c r="P37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6500.0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" t="s">
+        <v>222</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" t="s">
+        <v>81</v>
+      </c>
+      <c r="M38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" t="s">
+        <v>223</v>
+      </c>
+      <c r="O38" t="s">
+        <v>224</v>
+      </c>
+      <c r="P38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" t="s">
+        <v>81</v>
+      </c>
+      <c r="L39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M39" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" t="s">
+        <v>228</v>
+      </c>
+      <c r="O39" t="s">
+        <v>229</v>
+      </c>
+      <c r="P39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" t="s">
+        <v>216</v>
+      </c>
+      <c r="K40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" t="s">
+        <v>232</v>
+      </c>
+      <c r="O40" t="s">
+        <v>233</v>
+      </c>
+      <c r="P40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2700.0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" t="s">
+        <v>235</v>
+      </c>
+      <c r="O41" t="s">
+        <v>236</v>
+      </c>
+      <c r="P41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" t="s">
+        <v>238</v>
+      </c>
+      <c r="O42" t="s">
+        <v>239</v>
+      </c>
+      <c r="P42" t="s">
         <v>19</v>
       </c>
     </row>
